--- a/迁移相关/模块迁移列表.xlsx
+++ b/迁移相关/模块迁移列表.xlsx
@@ -559,10 +559,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>TC_Card_BagsDefine</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>TC_Account</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -572,14 +568,6 @@
   </si>
   <si>
     <t>TC_Operator</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_USERBINDING</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_Admin</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -614,6 +602,18 @@
   </si>
   <si>
     <t>TC_SysParameter（将有上下级的项放到数据字典模块）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_Card_BagsDefine（数据字典）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_Admin（不需要？）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_USERBINDING（不需要？）</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -634,6 +634,7 @@
       <sz val="22"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -642,6 +643,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -650,6 +652,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -658,6 +661,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -665,6 +669,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -672,12 +677,14 @@
       <sz val="11"/>
       <color theme="0" tint="-0.499984740745262"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -846,127 +853,127 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1340,8 +1347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11:I11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20:I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1353,149 +1360,149 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
     </row>
     <row r="2" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
     </row>
     <row r="3" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
     </row>
     <row r="4" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="42"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29" t="s">
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29" t="s">
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="29" t="s">
+      <c r="K5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="29" t="s">
+      <c r="L5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="29" t="s">
+      <c r="M5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="29" t="s">
+      <c r="N5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="O5" s="29" t="s">
+      <c r="O5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="P5" s="31" t="s">
+      <c r="P5" s="37" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="31"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="37"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40" t="s">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="12" t="s">
+      <c r="D7" s="13"/>
+      <c r="E7" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="48" t="s">
-        <v>181</v>
-      </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="52" t="s">
+        <v>178</v>
+      </c>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
       <c r="J7" s="1">
         <v>2</v>
       </c>
@@ -1504,24 +1511,24 @@
       <c r="M7" s="3"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
-      <c r="P7" s="32" t="s">
+      <c r="P7" s="30" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="15" t="s">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="48" t="s">
-        <v>180</v>
-      </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="52" t="s">
+        <v>177</v>
+      </c>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
       <c r="J8" s="1">
         <v>2</v>
       </c>
@@ -1530,22 +1537,22 @@
       <c r="M8" s="3"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
-      <c r="P8" s="33"/>
+      <c r="P8" s="31"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="40"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="12" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="48" t="s">
+      <c r="F9" s="51"/>
+      <c r="G9" s="52" t="s">
         <v>167</v>
       </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
       <c r="J9" s="1">
         <v>2</v>
       </c>
@@ -1554,22 +1561,22 @@
       <c r="M9" s="3"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
-      <c r="P9" s="33"/>
+      <c r="P9" s="31"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="40"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="12" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="48" t="s">
-        <v>168</v>
-      </c>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="52" t="s">
+        <v>179</v>
+      </c>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
       <c r="J10" s="1">
         <v>2</v>
       </c>
@@ -1578,22 +1585,22 @@
       <c r="M10" s="3"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
-      <c r="P10" s="33"/>
+      <c r="P10" s="31"/>
     </row>
     <row r="11" spans="1:16" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
       <c r="E11" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F11" s="4"/>
-      <c r="G11" s="48" t="s">
+      <c r="G11" s="52" t="s">
         <v>166</v>
       </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
       <c r="J11" s="1"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
@@ -1605,21 +1612,21 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40" t="s">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="40"/>
-      <c r="E12" s="15" t="s">
+      <c r="D12" s="13"/>
+      <c r="E12" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="48" t="s">
-        <v>169</v>
-      </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="52" t="s">
+        <v>168</v>
+      </c>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
       <c r="J12" s="1">
         <v>2</v>
       </c>
@@ -1628,24 +1635,24 @@
       <c r="M12" s="3"/>
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
-      <c r="P12" s="32" t="s">
+      <c r="P12" s="30" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="15" t="s">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="48" t="s">
-        <v>170</v>
-      </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="52" t="s">
+        <v>169</v>
+      </c>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
       <c r="J13" s="1">
         <v>2</v>
       </c>
@@ -1654,22 +1661,22 @@
       <c r="M13" s="3"/>
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
-      <c r="P13" s="33"/>
+      <c r="P13" s="31"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="15" t="s">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="48" t="s">
-        <v>171</v>
-      </c>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="52" t="s">
+        <v>170</v>
+      </c>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
       <c r="J14" s="1">
         <v>2</v>
       </c>
@@ -1678,69 +1685,69 @@
       <c r="M14" s="3"/>
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
-      <c r="P14" s="33"/>
+      <c r="P14" s="31"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40" t="s">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="40"/>
-      <c r="E15" s="15" t="s">
+      <c r="D15" s="13"/>
+      <c r="E15" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="48" t="s">
-        <v>173</v>
-      </c>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="50" t="s">
-        <v>174</v>
+      <c r="F15" s="26"/>
+      <c r="G15" s="52" t="s">
+        <v>180</v>
+      </c>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="12" t="s">
+        <v>171</v>
       </c>
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
       <c r="M15" s="3"/>
       <c r="N15" s="8"/>
       <c r="O15" s="8"/>
-      <c r="P15" s="34" t="s">
+      <c r="P15" s="38" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="15" t="s">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="48" t="s">
+      <c r="F16" s="26"/>
+      <c r="G16" s="52" t="s">
+        <v>181</v>
+      </c>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="12" t="s">
         <v>172</v>
-      </c>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="50" t="s">
-        <v>175</v>
       </c>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
       <c r="M16" s="3"/>
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
-      <c r="P16" s="34"/>
+      <c r="P16" s="38"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45" t="s">
+      <c r="B17" s="15"/>
+      <c r="C17" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="45"/>
+      <c r="D17" s="15"/>
       <c r="E17" s="16" t="s">
         <v>28</v>
       </c>
@@ -1756,15 +1763,15 @@
       <c r="M17" s="3"/>
       <c r="N17" s="8"/>
       <c r="O17" s="8"/>
-      <c r="P17" s="32" t="s">
+      <c r="P17" s="30" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="45"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
       <c r="E18" s="16" t="s">
         <v>31</v>
       </c>
@@ -1780,13 +1787,13 @@
       <c r="M18" s="3"/>
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
-      <c r="P18" s="33"/>
+      <c r="P18" s="31"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="45"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
       <c r="E19" s="16" t="s">
         <v>32</v>
       </c>
@@ -1800,15 +1807,15 @@
       <c r="M19" s="3"/>
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
-      <c r="P19" s="33"/>
+      <c r="P19" s="31"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="45"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45" t="s">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="45"/>
+      <c r="D20" s="15"/>
       <c r="E20" s="16" t="s">
         <v>34</v>
       </c>
@@ -1824,13 +1831,13 @@
       <c r="M20" s="3"/>
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
-      <c r="P20" s="33"/>
+      <c r="P20" s="31"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="45"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
       <c r="E21" s="16" t="s">
         <v>36</v>
       </c>
@@ -1844,13 +1851,13 @@
       <c r="M21" s="3"/>
       <c r="N21" s="8"/>
       <c r="O21" s="8"/>
-      <c r="P21" s="33"/>
+      <c r="P21" s="31"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="45"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
       <c r="E22" s="16" t="s">
         <v>37</v>
       </c>
@@ -1864,13 +1871,13 @@
       <c r="M22" s="3"/>
       <c r="N22" s="8"/>
       <c r="O22" s="8"/>
-      <c r="P22" s="33"/>
+      <c r="P22" s="31"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="45"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
       <c r="E23" s="16" t="s">
         <v>38</v>
       </c>
@@ -1884,15 +1891,15 @@
       <c r="M23" s="3"/>
       <c r="N23" s="8"/>
       <c r="O23" s="8"/>
-      <c r="P23" s="33"/>
+      <c r="P23" s="31"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="45"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="45" t="s">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="45"/>
+      <c r="D24" s="15"/>
       <c r="E24" s="16" t="s">
         <v>40</v>
       </c>
@@ -1908,13 +1915,13 @@
       <c r="M24" s="3"/>
       <c r="N24" s="8"/>
       <c r="O24" s="8"/>
-      <c r="P24" s="33"/>
+      <c r="P24" s="31"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="45"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
       <c r="E25" s="16" t="s">
         <v>42</v>
       </c>
@@ -1928,26 +1935,26 @@
       <c r="M25" s="3"/>
       <c r="N25" s="8"/>
       <c r="O25" s="8"/>
-      <c r="P25" s="33"/>
+      <c r="P25" s="31"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40" t="s">
+      <c r="B26" s="13"/>
+      <c r="C26" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="40"/>
-      <c r="E26" s="15" t="s">
+      <c r="D26" s="13"/>
+      <c r="E26" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="F26" s="15"/>
-      <c r="G26" s="51" t="s">
-        <v>176</v>
-      </c>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
       <c r="J26" s="1">
         <v>2</v>
       </c>
@@ -1961,17 +1968,17 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="40"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="15" t="s">
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="F27" s="15"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
       <c r="J27" s="1">
         <v>2</v>
       </c>
@@ -1983,17 +1990,17 @@
       <c r="P27" s="35"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="40"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="12" t="s">
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="F28" s="13"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
       <c r="J28" s="1">
         <v>2</v>
       </c>
@@ -2005,17 +2012,17 @@
       <c r="P28" s="35"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="40"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="12" t="s">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="13"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
       <c r="J29" s="1">
         <v>2</v>
       </c>
@@ -2027,19 +2034,19 @@
       <c r="P29" s="35"/>
     </row>
     <row r="30" spans="1:16" ht="49.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="40"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="17" t="s">
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="F30" s="17"/>
-      <c r="G30" s="49" t="s">
-        <v>177</v>
-      </c>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
       <c r="J30" s="1"/>
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
@@ -2051,21 +2058,21 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="40"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="46" t="s">
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="46"/>
-      <c r="E31" s="19" t="s">
+      <c r="D31" s="29"/>
+      <c r="E31" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="F31" s="20"/>
-      <c r="G31" s="47" t="s">
+      <c r="F31" s="41"/>
+      <c r="G31" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
       <c r="J31" s="1"/>
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
@@ -2074,17 +2081,17 @@
       <c r="O31" s="8"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="40"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="21" t="s">
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="F32" s="21"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="47"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
       <c r="J32" s="1">
         <v>2</v>
       </c>
@@ -2093,22 +2100,22 @@
       <c r="M32" s="3"/>
       <c r="N32" s="8"/>
       <c r="O32" s="8"/>
-      <c r="P32" s="32" t="s">
+      <c r="P32" s="30" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="21" t="s">
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="F33" s="21"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="47"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
       <c r="J33" s="1">
         <v>2</v>
       </c>
@@ -2117,20 +2124,20 @@
       <c r="M33" s="3"/>
       <c r="N33" s="8"/>
       <c r="O33" s="8"/>
-      <c r="P33" s="33"/>
+      <c r="P33" s="31"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="40"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="21" t="s">
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="F34" s="21"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="47"/>
-      <c r="I34" s="47"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
       <c r="J34" s="1">
         <v>2</v>
       </c>
@@ -2139,20 +2146,20 @@
       <c r="M34" s="3"/>
       <c r="N34" s="8"/>
       <c r="O34" s="8"/>
-      <c r="P34" s="33"/>
+      <c r="P34" s="31"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="40"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="21" t="s">
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="F35" s="21"/>
-      <c r="G35" s="47"/>
-      <c r="H35" s="47"/>
-      <c r="I35" s="47"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
       <c r="J35" s="1">
         <v>2</v>
       </c>
@@ -2161,20 +2168,20 @@
       <c r="M35" s="3"/>
       <c r="N35" s="8"/>
       <c r="O35" s="8"/>
-      <c r="P35" s="33"/>
+      <c r="P35" s="31"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="40"/>
-      <c r="B36" s="40"/>
-      <c r="C36" s="46"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="21" t="s">
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="F36" s="21"/>
-      <c r="G36" s="47"/>
-      <c r="H36" s="47"/>
-      <c r="I36" s="47"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
       <c r="J36" s="1">
         <v>2</v>
       </c>
@@ -2183,22 +2190,22 @@
       <c r="M36" s="3"/>
       <c r="N36" s="8"/>
       <c r="O36" s="8"/>
-      <c r="P36" s="33"/>
+      <c r="P36" s="31"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="40"/>
-      <c r="B37" s="40"/>
-      <c r="C37" s="46"/>
-      <c r="D37" s="46"/>
-      <c r="E37" s="21" t="s">
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="F37" s="21"/>
-      <c r="G37" s="22" t="s">
+      <c r="F37" s="46"/>
+      <c r="G37" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="H37" s="23"/>
-      <c r="I37" s="24"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="49"/>
       <c r="J37" s="1"/>
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
@@ -2207,19 +2214,19 @@
       <c r="O37" s="8"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="40"/>
-      <c r="B38" s="40"/>
-      <c r="C38" s="46"/>
-      <c r="D38" s="46"/>
-      <c r="E38" s="21" t="s">
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="F38" s="21"/>
-      <c r="G38" s="22" t="s">
+      <c r="F38" s="46"/>
+      <c r="G38" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="H38" s="23"/>
-      <c r="I38" s="24"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="49"/>
       <c r="J38" s="1"/>
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
@@ -2228,19 +2235,19 @@
       <c r="O38" s="8"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="40"/>
-      <c r="B39" s="40"/>
-      <c r="C39" s="46"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="19" t="s">
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="F39" s="20"/>
-      <c r="G39" s="47" t="s">
+      <c r="F39" s="41"/>
+      <c r="G39" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="H39" s="47"/>
-      <c r="I39" s="47"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
       <c r="J39" s="1"/>
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
@@ -2249,17 +2256,17 @@
       <c r="O39" s="8"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="40"/>
-      <c r="B40" s="40"/>
-      <c r="C40" s="46"/>
-      <c r="D40" s="46"/>
-      <c r="E40" s="19" t="s">
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="F40" s="20"/>
-      <c r="G40" s="47"/>
-      <c r="H40" s="47"/>
-      <c r="I40" s="47"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
       <c r="J40" s="1">
         <v>2</v>
       </c>
@@ -2273,21 +2280,21 @@
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="40"/>
-      <c r="B41" s="40"/>
-      <c r="C41" s="40" t="s">
+      <c r="A41" s="13"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D41" s="40"/>
-      <c r="E41" s="17" t="s">
+      <c r="D41" s="13"/>
+      <c r="E41" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="F41" s="17"/>
-      <c r="G41" s="49" t="s">
+      <c r="F41" s="22"/>
+      <c r="G41" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="H41" s="18"/>
-      <c r="I41" s="18"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
       <c r="J41" s="1">
         <v>8</v>
       </c>
@@ -2296,22 +2303,22 @@
       <c r="M41" s="3"/>
       <c r="N41" s="8"/>
       <c r="O41" s="8"/>
-      <c r="P41" s="32" t="s">
+      <c r="P41" s="30" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="40"/>
-      <c r="B42" s="40"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="17" t="s">
+      <c r="A42" s="13"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="F42" s="17"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="18"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
       <c r="J42" s="1">
         <v>8</v>
       </c>
@@ -2320,20 +2327,20 @@
       <c r="M42" s="3"/>
       <c r="N42" s="8"/>
       <c r="O42" s="8"/>
-      <c r="P42" s="33"/>
+      <c r="P42" s="31"/>
     </row>
     <row r="43" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="40"/>
-      <c r="B43" s="40"/>
-      <c r="C43" s="40"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="17" t="s">
+      <c r="A43" s="13"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="F43" s="17"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="18"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
       <c r="J43" s="1">
         <v>8</v>
       </c>
@@ -2342,22 +2349,22 @@
       <c r="M43" s="3"/>
       <c r="N43" s="8"/>
       <c r="O43" s="8"/>
-      <c r="P43" s="33"/>
+      <c r="P43" s="31"/>
     </row>
     <row r="44" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="40"/>
-      <c r="B44" s="40"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="17" t="s">
+      <c r="A44" s="13"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="F44" s="17"/>
-      <c r="G44" s="52" t="s">
-        <v>178</v>
-      </c>
-      <c r="H44" s="18"/>
-      <c r="I44" s="18"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
       <c r="J44" s="1">
         <v>8</v>
       </c>
@@ -2366,20 +2373,20 @@
       <c r="M44" s="3"/>
       <c r="N44" s="8"/>
       <c r="O44" s="8"/>
-      <c r="P44" s="33"/>
+      <c r="P44" s="31"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="40"/>
-      <c r="B45" s="40"/>
-      <c r="C45" s="40"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="52" t="s">
-        <v>179</v>
-      </c>
-      <c r="H45" s="18"/>
-      <c r="I45" s="18"/>
+      <c r="A45" s="13"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="42" t="s">
+        <v>176</v>
+      </c>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
       <c r="J45" s="1">
         <v>8</v>
       </c>
@@ -2388,22 +2395,22 @@
       <c r="M45" s="3"/>
       <c r="N45" s="8"/>
       <c r="O45" s="8"/>
-      <c r="P45" s="33"/>
+      <c r="P45" s="31"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="40"/>
-      <c r="B46" s="40"/>
-      <c r="C46" s="40"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="14" t="s">
+      <c r="A46" s="13"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F46" s="14"/>
-      <c r="G46" s="25" t="s">
+      <c r="F46" s="18"/>
+      <c r="G46" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="H46" s="26"/>
-      <c r="I46" s="27"/>
+      <c r="H46" s="44"/>
+      <c r="I46" s="45"/>
       <c r="J46" s="1"/>
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
@@ -2412,23 +2419,23 @@
       <c r="O46" s="8"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="40" t="s">
+      <c r="A47" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="B47" s="40"/>
-      <c r="C47" s="40" t="s">
+      <c r="B47" s="13"/>
+      <c r="C47" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="D47" s="40"/>
-      <c r="E47" s="14" t="s">
+      <c r="D47" s="13"/>
+      <c r="E47" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14" t="s">
+      <c r="F47" s="18"/>
+      <c r="G47" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="H47" s="14"/>
-      <c r="I47" s="14"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="18"/>
       <c r="J47" s="1">
         <v>8</v>
       </c>
@@ -2442,17 +2449,17 @@
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="40"/>
-      <c r="B48" s="40"/>
-      <c r="C48" s="40"/>
-      <c r="D48" s="40"/>
-      <c r="E48" s="14" t="s">
+      <c r="A48" s="13"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="18"/>
       <c r="J48" s="1">
         <v>8</v>
       </c>
@@ -2461,20 +2468,20 @@
       <c r="M48" s="3"/>
       <c r="N48" s="8"/>
       <c r="O48" s="8"/>
-      <c r="P48" s="33"/>
+      <c r="P48" s="31"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="40"/>
-      <c r="B49" s="40"/>
-      <c r="C49" s="40"/>
-      <c r="D49" s="40"/>
-      <c r="E49" s="14" t="s">
+      <c r="A49" s="13"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
       <c r="J49" s="1">
         <v>4</v>
       </c>
@@ -2483,22 +2490,22 @@
       <c r="M49" s="3"/>
       <c r="N49" s="8"/>
       <c r="O49" s="8"/>
-      <c r="P49" s="33"/>
+      <c r="P49" s="31"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="40"/>
-      <c r="B50" s="40"/>
-      <c r="C50" s="40"/>
-      <c r="D50" s="40"/>
-      <c r="E50" s="14" t="s">
+      <c r="A50" s="13"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14" t="s">
+      <c r="F50" s="18"/>
+      <c r="G50" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="H50" s="14"/>
-      <c r="I50" s="14"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
       <c r="J50" s="1">
         <v>4</v>
       </c>
@@ -2507,20 +2514,20 @@
       <c r="M50" s="3"/>
       <c r="N50" s="8"/>
       <c r="O50" s="8"/>
-      <c r="P50" s="33"/>
+      <c r="P50" s="31"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" s="40"/>
-      <c r="B51" s="40"/>
-      <c r="C51" s="40"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="14" t="s">
+      <c r="A51" s="13"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="14"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
       <c r="J51" s="1">
         <v>4</v>
       </c>
@@ -2529,24 +2536,24 @@
       <c r="M51" s="3"/>
       <c r="N51" s="8"/>
       <c r="O51" s="8"/>
-      <c r="P51" s="33"/>
+      <c r="P51" s="31"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" s="40"/>
-      <c r="B52" s="40"/>
-      <c r="C52" s="40" t="s">
+      <c r="A52" s="13"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D52" s="40"/>
-      <c r="E52" s="14" t="s">
+      <c r="D52" s="13"/>
+      <c r="E52" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14" t="s">
+      <c r="F52" s="18"/>
+      <c r="G52" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="H52" s="14"/>
-      <c r="I52" s="14"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="18"/>
       <c r="J52" s="1">
         <v>4</v>
       </c>
@@ -2555,20 +2562,20 @@
       <c r="M52" s="3"/>
       <c r="N52" s="8"/>
       <c r="O52" s="8"/>
-      <c r="P52" s="33"/>
+      <c r="P52" s="31"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" s="40"/>
-      <c r="B53" s="40"/>
-      <c r="C53" s="40"/>
-      <c r="D53" s="40"/>
-      <c r="E53" s="14" t="s">
+      <c r="A53" s="13"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="14"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="18"/>
       <c r="J53" s="1">
         <v>4</v>
       </c>
@@ -2577,20 +2584,20 @@
       <c r="M53" s="3"/>
       <c r="N53" s="8"/>
       <c r="O53" s="8"/>
-      <c r="P53" s="33"/>
+      <c r="P53" s="31"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" s="40"/>
-      <c r="B54" s="40"/>
-      <c r="C54" s="40"/>
-      <c r="D54" s="40"/>
-      <c r="E54" s="14" t="s">
+      <c r="A54" s="13"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="14"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="18"/>
       <c r="J54" s="1">
         <v>4</v>
       </c>
@@ -2599,20 +2606,20 @@
       <c r="M54" s="3"/>
       <c r="N54" s="8"/>
       <c r="O54" s="8"/>
-      <c r="P54" s="33"/>
+      <c r="P54" s="31"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" s="40"/>
-      <c r="B55" s="40"/>
-      <c r="C55" s="40"/>
-      <c r="D55" s="40"/>
-      <c r="E55" s="14" t="s">
+      <c r="A55" s="13"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="14"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="18"/>
       <c r="J55" s="1">
         <v>4</v>
       </c>
@@ -2621,20 +2628,20 @@
       <c r="M55" s="3"/>
       <c r="N55" s="8"/>
       <c r="O55" s="8"/>
-      <c r="P55" s="33"/>
+      <c r="P55" s="31"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" s="40"/>
-      <c r="B56" s="40"/>
-      <c r="C56" s="40"/>
-      <c r="D56" s="40"/>
-      <c r="E56" s="14" t="s">
+      <c r="A56" s="13"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="14"/>
-      <c r="I56" s="14"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="18"/>
       <c r="J56" s="1">
         <v>4</v>
       </c>
@@ -2643,20 +2650,20 @@
       <c r="M56" s="3"/>
       <c r="N56" s="8"/>
       <c r="O56" s="8"/>
-      <c r="P56" s="33"/>
+      <c r="P56" s="31"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" s="40"/>
-      <c r="B57" s="40"/>
-      <c r="C57" s="40"/>
-      <c r="D57" s="40"/>
-      <c r="E57" s="14" t="s">
+      <c r="A57" s="13"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="14"/>
-      <c r="I57" s="14"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="18"/>
+      <c r="I57" s="18"/>
       <c r="J57" s="1">
         <v>4</v>
       </c>
@@ -2665,24 +2672,24 @@
       <c r="M57" s="3"/>
       <c r="N57" s="8"/>
       <c r="O57" s="8"/>
-      <c r="P57" s="33"/>
+      <c r="P57" s="31"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" s="40"/>
-      <c r="B58" s="40"/>
-      <c r="C58" s="40" t="s">
+      <c r="A58" s="13"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="D58" s="40"/>
-      <c r="E58" s="14" t="s">
+      <c r="D58" s="13"/>
+      <c r="E58" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14" t="s">
+      <c r="F58" s="18"/>
+      <c r="G58" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="H58" s="14"/>
-      <c r="I58" s="14"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="18"/>
       <c r="J58" s="1">
         <v>4</v>
       </c>
@@ -2691,20 +2698,20 @@
       <c r="M58" s="3"/>
       <c r="N58" s="8"/>
       <c r="O58" s="8"/>
-      <c r="P58" s="33"/>
+      <c r="P58" s="31"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" s="40"/>
-      <c r="B59" s="40"/>
-      <c r="C59" s="40"/>
-      <c r="D59" s="40"/>
-      <c r="E59" s="14" t="s">
+      <c r="A59" s="13"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14"/>
-      <c r="H59" s="14"/>
-      <c r="I59" s="14"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
       <c r="J59" s="1">
         <v>4</v>
       </c>
@@ -2713,22 +2720,22 @@
       <c r="M59" s="3"/>
       <c r="N59" s="8"/>
       <c r="O59" s="8"/>
-      <c r="P59" s="33"/>
+      <c r="P59" s="31"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A60" s="40"/>
-      <c r="B60" s="40"/>
-      <c r="C60" s="40"/>
-      <c r="D60" s="40"/>
-      <c r="E60" s="14" t="s">
+      <c r="A60" s="13"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F60" s="14"/>
-      <c r="G60" s="41" t="s">
+      <c r="F60" s="18"/>
+      <c r="G60" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="H60" s="14"/>
-      <c r="I60" s="14"/>
+      <c r="H60" s="18"/>
+      <c r="I60" s="18"/>
       <c r="J60" s="1">
         <v>4</v>
       </c>
@@ -2737,20 +2744,20 @@
       <c r="M60" s="3"/>
       <c r="N60" s="8"/>
       <c r="O60" s="8"/>
-      <c r="P60" s="33"/>
+      <c r="P60" s="31"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A61" s="40"/>
-      <c r="B61" s="40"/>
-      <c r="C61" s="40"/>
-      <c r="D61" s="40"/>
-      <c r="E61" s="14" t="s">
+      <c r="A61" s="13"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="F61" s="14"/>
-      <c r="G61" s="14"/>
-      <c r="H61" s="14"/>
-      <c r="I61" s="14"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="18"/>
       <c r="J61" s="1">
         <v>4</v>
       </c>
@@ -2759,22 +2766,22 @@
       <c r="M61" s="3"/>
       <c r="N61" s="8"/>
       <c r="O61" s="8"/>
-      <c r="P61" s="33"/>
+      <c r="P61" s="31"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A62" s="40"/>
-      <c r="B62" s="40"/>
-      <c r="C62" s="40"/>
-      <c r="D62" s="40"/>
-      <c r="E62" s="14" t="s">
+      <c r="A62" s="13"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="F62" s="14"/>
-      <c r="G62" s="41" t="s">
+      <c r="F62" s="18"/>
+      <c r="G62" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="H62" s="14"/>
-      <c r="I62" s="14"/>
+      <c r="H62" s="18"/>
+      <c r="I62" s="18"/>
       <c r="J62" s="1">
         <v>4</v>
       </c>
@@ -2783,18 +2790,18 @@
       <c r="M62" s="3"/>
       <c r="N62" s="8"/>
       <c r="O62" s="8"/>
-      <c r="P62" s="33"/>
+      <c r="P62" s="31"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A63" s="40"/>
-      <c r="B63" s="40"/>
-      <c r="C63" s="40"/>
-      <c r="D63" s="40"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="14"/>
-      <c r="H63" s="14"/>
-      <c r="I63" s="14"/>
+      <c r="A63" s="13"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="18"/>
+      <c r="I63" s="18"/>
       <c r="J63" s="1">
         <v>4</v>
       </c>
@@ -2803,26 +2810,26 @@
       <c r="M63" s="3"/>
       <c r="N63" s="8"/>
       <c r="O63" s="8"/>
-      <c r="P63" s="33"/>
+      <c r="P63" s="31"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A64" s="40" t="s">
+      <c r="A64" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="B64" s="40"/>
-      <c r="C64" s="40" t="s">
+      <c r="B64" s="13"/>
+      <c r="C64" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="D64" s="40"/>
-      <c r="E64" s="15" t="s">
+      <c r="D64" s="13"/>
+      <c r="E64" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="F64" s="15"/>
-      <c r="G64" s="14" t="s">
+      <c r="F64" s="26"/>
+      <c r="G64" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="H64" s="14"/>
-      <c r="I64" s="14"/>
+      <c r="H64" s="18"/>
+      <c r="I64" s="18"/>
       <c r="J64" s="1">
         <v>2</v>
       </c>
@@ -2831,22 +2838,22 @@
       <c r="M64" s="3"/>
       <c r="N64" s="8"/>
       <c r="O64" s="8"/>
-      <c r="P64" s="32" t="s">
+      <c r="P64" s="30" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A65" s="40"/>
-      <c r="B65" s="40"/>
-      <c r="C65" s="40"/>
-      <c r="D65" s="40"/>
-      <c r="E65" s="15" t="s">
+      <c r="A65" s="13"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="F65" s="15"/>
-      <c r="G65" s="14"/>
-      <c r="H65" s="14"/>
-      <c r="I65" s="14"/>
+      <c r="F65" s="26"/>
+      <c r="G65" s="18"/>
+      <c r="H65" s="18"/>
+      <c r="I65" s="18"/>
       <c r="J65" s="1">
         <v>2</v>
       </c>
@@ -2855,20 +2862,20 @@
       <c r="M65" s="3"/>
       <c r="N65" s="8"/>
       <c r="O65" s="8"/>
-      <c r="P65" s="33"/>
+      <c r="P65" s="31"/>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A66" s="40"/>
-      <c r="B66" s="40"/>
-      <c r="C66" s="40"/>
-      <c r="D66" s="40"/>
-      <c r="E66" s="15" t="s">
+      <c r="A66" s="13"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="F66" s="15"/>
-      <c r="G66" s="14"/>
-      <c r="H66" s="14"/>
-      <c r="I66" s="14"/>
+      <c r="F66" s="26"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="18"/>
       <c r="J66" s="1">
         <v>8</v>
       </c>
@@ -2882,17 +2889,17 @@
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A67" s="40"/>
-      <c r="B67" s="40"/>
-      <c r="C67" s="40"/>
-      <c r="D67" s="40"/>
-      <c r="E67" s="28" t="s">
+      <c r="A67" s="13"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="F67" s="28"/>
-      <c r="G67" s="14"/>
-      <c r="H67" s="14"/>
-      <c r="I67" s="14"/>
+      <c r="F67" s="27"/>
+      <c r="G67" s="18"/>
+      <c r="H67" s="18"/>
+      <c r="I67" s="18"/>
       <c r="J67" s="1">
         <v>16</v>
       </c>
@@ -2901,22 +2908,22 @@
       <c r="M67" s="3"/>
       <c r="N67" s="8"/>
       <c r="O67" s="8"/>
-      <c r="P67" s="37" t="s">
+      <c r="P67" s="32" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A68" s="40"/>
-      <c r="B68" s="40"/>
-      <c r="C68" s="40"/>
-      <c r="D68" s="40"/>
-      <c r="E68" s="28" t="s">
+      <c r="A68" s="13"/>
+      <c r="B68" s="13"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="F68" s="28"/>
-      <c r="G68" s="14"/>
-      <c r="H68" s="14"/>
-      <c r="I68" s="14"/>
+      <c r="F68" s="27"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="18"/>
+      <c r="I68" s="18"/>
       <c r="J68" s="1">
         <v>10</v>
       </c>
@@ -2925,20 +2932,20 @@
       <c r="M68" s="3"/>
       <c r="N68" s="8"/>
       <c r="O68" s="8"/>
-      <c r="P68" s="37"/>
+      <c r="P68" s="32"/>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A69" s="40"/>
-      <c r="B69" s="40"/>
-      <c r="C69" s="40"/>
-      <c r="D69" s="40"/>
-      <c r="E69" s="17" t="s">
+      <c r="A69" s="13"/>
+      <c r="B69" s="13"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="F69" s="17"/>
-      <c r="G69" s="14"/>
-      <c r="H69" s="14"/>
-      <c r="I69" s="14"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="18"/>
+      <c r="H69" s="18"/>
+      <c r="I69" s="18"/>
       <c r="J69" s="1">
         <v>40</v>
       </c>
@@ -2952,21 +2959,21 @@
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A70" s="40"/>
-      <c r="B70" s="40"/>
-      <c r="C70" s="40" t="s">
+      <c r="A70" s="13"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="D70" s="40"/>
-      <c r="E70" s="15" t="s">
+      <c r="D70" s="13"/>
+      <c r="E70" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="F70" s="15"/>
-      <c r="G70" s="14" t="s">
+      <c r="F70" s="26"/>
+      <c r="G70" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="H70" s="14"/>
-      <c r="I70" s="14"/>
+      <c r="H70" s="18"/>
+      <c r="I70" s="18"/>
       <c r="J70" s="1">
         <v>2</v>
       </c>
@@ -2975,24 +2982,24 @@
       <c r="M70" s="3"/>
       <c r="N70" s="8"/>
       <c r="O70" s="8"/>
-      <c r="P70" s="37" t="s">
+      <c r="P70" s="32" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A71" s="40"/>
-      <c r="B71" s="40"/>
-      <c r="C71" s="40"/>
-      <c r="D71" s="40"/>
-      <c r="E71" s="15" t="s">
+      <c r="A71" s="13"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="F71" s="15"/>
-      <c r="G71" s="14" t="s">
+      <c r="F71" s="26"/>
+      <c r="G71" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="H71" s="14"/>
-      <c r="I71" s="14"/>
+      <c r="H71" s="18"/>
+      <c r="I71" s="18"/>
       <c r="J71" s="1">
         <v>2</v>
       </c>
@@ -3001,24 +3008,24 @@
       <c r="M71" s="3"/>
       <c r="N71" s="8"/>
       <c r="O71" s="8"/>
-      <c r="P71" s="38"/>
+      <c r="P71" s="33"/>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A72" s="40"/>
-      <c r="B72" s="40"/>
-      <c r="C72" s="40" t="s">
+      <c r="A72" s="13"/>
+      <c r="B72" s="13"/>
+      <c r="C72" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="D72" s="40"/>
-      <c r="E72" s="15" t="s">
+      <c r="D72" s="13"/>
+      <c r="E72" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="F72" s="15"/>
-      <c r="G72" s="14" t="s">
+      <c r="F72" s="26"/>
+      <c r="G72" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="H72" s="14"/>
-      <c r="I72" s="14"/>
+      <c r="H72" s="18"/>
+      <c r="I72" s="18"/>
       <c r="J72" s="1">
         <v>2</v>
       </c>
@@ -3027,22 +3034,22 @@
       <c r="M72" s="3"/>
       <c r="N72" s="8"/>
       <c r="O72" s="8"/>
-      <c r="P72" s="38"/>
+      <c r="P72" s="33"/>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A73" s="40"/>
-      <c r="B73" s="40"/>
-      <c r="C73" s="40"/>
-      <c r="D73" s="40"/>
-      <c r="E73" s="15" t="s">
+      <c r="A73" s="13"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="F73" s="15"/>
-      <c r="G73" s="14" t="s">
+      <c r="F73" s="26"/>
+      <c r="G73" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="H73" s="14"/>
-      <c r="I73" s="14"/>
+      <c r="H73" s="18"/>
+      <c r="I73" s="18"/>
       <c r="J73" s="1">
         <v>2</v>
       </c>
@@ -3051,24 +3058,24 @@
       <c r="M73" s="3"/>
       <c r="N73" s="8"/>
       <c r="O73" s="8"/>
-      <c r="P73" s="38"/>
+      <c r="P73" s="33"/>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A74" s="40"/>
-      <c r="B74" s="40"/>
-      <c r="C74" s="40" t="s">
+      <c r="A74" s="13"/>
+      <c r="B74" s="13"/>
+      <c r="C74" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="D74" s="40"/>
-      <c r="E74" s="15" t="s">
+      <c r="D74" s="13"/>
+      <c r="E74" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="F74" s="15"/>
-      <c r="G74" s="14" t="s">
+      <c r="F74" s="26"/>
+      <c r="G74" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="H74" s="14"/>
-      <c r="I74" s="14"/>
+      <c r="H74" s="18"/>
+      <c r="I74" s="18"/>
       <c r="J74" s="1">
         <v>2</v>
       </c>
@@ -3077,22 +3084,22 @@
       <c r="M74" s="3"/>
       <c r="N74" s="8"/>
       <c r="O74" s="8"/>
-      <c r="P74" s="38"/>
+      <c r="P74" s="33"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A75" s="40"/>
-      <c r="B75" s="40"/>
-      <c r="C75" s="40"/>
-      <c r="D75" s="40"/>
-      <c r="E75" s="15" t="s">
+      <c r="A75" s="13"/>
+      <c r="B75" s="13"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="F75" s="15"/>
-      <c r="G75" s="14" t="s">
+      <c r="F75" s="26"/>
+      <c r="G75" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="H75" s="14"/>
-      <c r="I75" s="14"/>
+      <c r="H75" s="18"/>
+      <c r="I75" s="18"/>
       <c r="J75" s="1">
         <v>2</v>
       </c>
@@ -3101,26 +3108,26 @@
       <c r="M75" s="3"/>
       <c r="N75" s="8"/>
       <c r="O75" s="8"/>
-      <c r="P75" s="38"/>
+      <c r="P75" s="33"/>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A76" s="40" t="s">
+      <c r="A76" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="B76" s="40"/>
-      <c r="C76" s="40" t="s">
+      <c r="B76" s="13"/>
+      <c r="C76" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="D76" s="40"/>
-      <c r="E76" s="15" t="s">
+      <c r="D76" s="13"/>
+      <c r="E76" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="F76" s="15"/>
-      <c r="G76" s="14" t="s">
+      <c r="F76" s="26"/>
+      <c r="G76" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="H76" s="14"/>
-      <c r="I76" s="14"/>
+      <c r="H76" s="18"/>
+      <c r="I76" s="18"/>
       <c r="J76" s="1">
         <v>2</v>
       </c>
@@ -3129,22 +3136,22 @@
       <c r="M76" s="3"/>
       <c r="N76" s="8"/>
       <c r="O76" s="8"/>
-      <c r="P76" s="38"/>
+      <c r="P76" s="33"/>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A77" s="40"/>
-      <c r="B77" s="40"/>
-      <c r="C77" s="40"/>
-      <c r="D77" s="40"/>
-      <c r="E77" s="15" t="s">
+      <c r="A77" s="13"/>
+      <c r="B77" s="13"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="F77" s="15"/>
-      <c r="G77" s="14" t="s">
+      <c r="F77" s="26"/>
+      <c r="G77" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="H77" s="14"/>
-      <c r="I77" s="14"/>
+      <c r="H77" s="18"/>
+      <c r="I77" s="18"/>
       <c r="J77" s="1">
         <v>2</v>
       </c>
@@ -3153,23 +3160,23 @@
       <c r="M77" s="3"/>
       <c r="N77" s="8"/>
       <c r="O77" s="8"/>
-      <c r="P77" s="38"/>
+      <c r="P77" s="33"/>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A78" s="40"/>
-      <c r="B78" s="40"/>
-      <c r="C78" s="40"/>
-      <c r="D78" s="40"/>
-      <c r="E78" s="15" t="s">
+      <c r="A78" s="13"/>
+      <c r="B78" s="13"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="F78" s="15"/>
-      <c r="G78" s="41" t="s">
+      <c r="F78" s="26"/>
+      <c r="G78" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="H78" s="14"/>
-      <c r="I78" s="14"/>
-      <c r="J78" s="30">
+      <c r="H78" s="18"/>
+      <c r="I78" s="18"/>
+      <c r="J78" s="39">
         <v>16</v>
       </c>
       <c r="K78" s="8"/>
@@ -3177,43 +3184,43 @@
       <c r="M78" s="3"/>
       <c r="N78" s="8"/>
       <c r="O78" s="8"/>
-      <c r="P78" s="37" t="s">
+      <c r="P78" s="32" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A79" s="40"/>
-      <c r="B79" s="40"/>
-      <c r="C79" s="40"/>
-      <c r="D79" s="40"/>
-      <c r="E79" s="15"/>
-      <c r="F79" s="15"/>
-      <c r="G79" s="14"/>
-      <c r="H79" s="14"/>
-      <c r="I79" s="14"/>
-      <c r="J79" s="30"/>
+      <c r="A79" s="13"/>
+      <c r="B79" s="13"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="26"/>
+      <c r="F79" s="26"/>
+      <c r="G79" s="18"/>
+      <c r="H79" s="18"/>
+      <c r="I79" s="18"/>
+      <c r="J79" s="39"/>
       <c r="K79" s="8"/>
       <c r="L79" s="8"/>
       <c r="M79" s="3"/>
       <c r="N79" s="8"/>
       <c r="O79" s="8"/>
-      <c r="P79" s="37"/>
+      <c r="P79" s="32"/>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A80" s="40"/>
-      <c r="B80" s="40"/>
-      <c r="C80" s="40"/>
-      <c r="D80" s="40"/>
-      <c r="E80" s="28" t="s">
+      <c r="A80" s="13"/>
+      <c r="B80" s="13"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="F80" s="28"/>
-      <c r="G80" s="44" t="s">
+      <c r="F80" s="27"/>
+      <c r="G80" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="H80" s="14"/>
-      <c r="I80" s="14"/>
-      <c r="J80" s="30">
+      <c r="H80" s="18"/>
+      <c r="I80" s="18"/>
+      <c r="J80" s="39">
         <v>16</v>
       </c>
       <c r="K80" s="8"/>
@@ -3221,42 +3228,42 @@
       <c r="M80" s="3"/>
       <c r="N80" s="8"/>
       <c r="O80" s="8"/>
-      <c r="P80" s="37"/>
+      <c r="P80" s="32"/>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A81" s="40"/>
-      <c r="B81" s="40"/>
-      <c r="C81" s="40"/>
-      <c r="D81" s="40"/>
-      <c r="E81" s="28"/>
-      <c r="F81" s="28"/>
-      <c r="G81" s="14"/>
-      <c r="H81" s="14"/>
-      <c r="I81" s="14"/>
-      <c r="J81" s="30"/>
+      <c r="A81" s="13"/>
+      <c r="B81" s="13"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="27"/>
+      <c r="F81" s="27"/>
+      <c r="G81" s="18"/>
+      <c r="H81" s="18"/>
+      <c r="I81" s="18"/>
+      <c r="J81" s="39"/>
       <c r="K81" s="8"/>
       <c r="L81" s="8"/>
       <c r="M81" s="3"/>
       <c r="N81" s="8"/>
       <c r="O81" s="8"/>
-      <c r="P81" s="37"/>
+      <c r="P81" s="32"/>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A82" s="40"/>
-      <c r="B82" s="40"/>
-      <c r="C82" s="40" t="s">
+      <c r="A82" s="13"/>
+      <c r="B82" s="13"/>
+      <c r="C82" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="D82" s="40"/>
-      <c r="E82" s="28" t="s">
+      <c r="D82" s="13"/>
+      <c r="E82" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="F82" s="28"/>
-      <c r="G82" s="14" t="s">
+      <c r="F82" s="27"/>
+      <c r="G82" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="H82" s="14"/>
-      <c r="I82" s="14"/>
+      <c r="H82" s="18"/>
+      <c r="I82" s="18"/>
       <c r="J82" s="1">
         <v>4</v>
       </c>
@@ -3270,19 +3277,19 @@
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A83" s="40"/>
-      <c r="B83" s="40"/>
-      <c r="C83" s="40"/>
-      <c r="D83" s="40"/>
-      <c r="E83" s="17" t="s">
+      <c r="A83" s="13"/>
+      <c r="B83" s="13"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="F83" s="17"/>
-      <c r="G83" s="14" t="s">
+      <c r="F83" s="22"/>
+      <c r="G83" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="H83" s="14"/>
-      <c r="I83" s="14"/>
+      <c r="H83" s="18"/>
+      <c r="I83" s="18"/>
       <c r="J83" s="1">
         <v>32</v>
       </c>
@@ -3296,19 +3303,19 @@
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A84" s="40"/>
-      <c r="B84" s="40"/>
-      <c r="C84" s="40"/>
-      <c r="D84" s="40"/>
-      <c r="E84" s="15" t="s">
+      <c r="A84" s="13"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="F84" s="15"/>
-      <c r="G84" s="14" t="s">
+      <c r="F84" s="26"/>
+      <c r="G84" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="H84" s="14"/>
-      <c r="I84" s="14"/>
+      <c r="H84" s="18"/>
+      <c r="I84" s="18"/>
       <c r="J84" s="1">
         <v>4</v>
       </c>
@@ -3317,24 +3324,24 @@
       <c r="M84" s="3"/>
       <c r="N84" s="8"/>
       <c r="O84" s="8"/>
-      <c r="P84" s="32" t="s">
+      <c r="P84" s="30" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A85" s="40"/>
-      <c r="B85" s="40"/>
-      <c r="C85" s="40"/>
-      <c r="D85" s="40"/>
-      <c r="E85" s="15" t="s">
+      <c r="A85" s="13"/>
+      <c r="B85" s="13"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="F85" s="15"/>
-      <c r="G85" s="14" t="s">
+      <c r="F85" s="26"/>
+      <c r="G85" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="H85" s="14"/>
-      <c r="I85" s="14"/>
+      <c r="H85" s="18"/>
+      <c r="I85" s="18"/>
       <c r="J85" s="1">
         <v>4</v>
       </c>
@@ -3343,22 +3350,22 @@
       <c r="M85" s="3"/>
       <c r="N85" s="8"/>
       <c r="O85" s="8"/>
-      <c r="P85" s="33"/>
+      <c r="P85" s="31"/>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A86" s="40"/>
-      <c r="B86" s="40"/>
-      <c r="C86" s="40"/>
-      <c r="D86" s="40"/>
-      <c r="E86" s="15" t="s">
+      <c r="A86" s="13"/>
+      <c r="B86" s="13"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="F86" s="15"/>
-      <c r="G86" s="14" t="s">
+      <c r="F86" s="26"/>
+      <c r="G86" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="H86" s="14"/>
-      <c r="I86" s="14"/>
+      <c r="H86" s="18"/>
+      <c r="I86" s="18"/>
       <c r="J86" s="1">
         <v>4</v>
       </c>
@@ -3367,22 +3374,22 @@
       <c r="M86" s="3"/>
       <c r="N86" s="8"/>
       <c r="O86" s="8"/>
-      <c r="P86" s="33"/>
+      <c r="P86" s="31"/>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A87" s="40"/>
-      <c r="B87" s="40"/>
-      <c r="C87" s="40"/>
-      <c r="D87" s="40"/>
-      <c r="E87" s="15" t="s">
+      <c r="A87" s="13"/>
+      <c r="B87" s="13"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="F87" s="15"/>
-      <c r="G87" s="14" t="s">
+      <c r="F87" s="26"/>
+      <c r="G87" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="H87" s="14"/>
-      <c r="I87" s="14"/>
+      <c r="H87" s="18"/>
+      <c r="I87" s="18"/>
       <c r="J87" s="1">
         <v>4</v>
       </c>
@@ -3391,22 +3398,22 @@
       <c r="M87" s="3"/>
       <c r="N87" s="8"/>
       <c r="O87" s="8"/>
-      <c r="P87" s="33"/>
+      <c r="P87" s="31"/>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A88" s="40"/>
-      <c r="B88" s="40"/>
-      <c r="C88" s="40"/>
-      <c r="D88" s="40"/>
-      <c r="E88" s="15" t="s">
+      <c r="A88" s="13"/>
+      <c r="B88" s="13"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="F88" s="15"/>
-      <c r="G88" s="14" t="s">
+      <c r="F88" s="26"/>
+      <c r="G88" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="H88" s="14"/>
-      <c r="I88" s="14"/>
+      <c r="H88" s="18"/>
+      <c r="I88" s="18"/>
       <c r="J88" s="1">
         <v>4</v>
       </c>
@@ -3415,24 +3422,24 @@
       <c r="M88" s="3"/>
       <c r="N88" s="8"/>
       <c r="O88" s="8"/>
-      <c r="P88" s="33"/>
+      <c r="P88" s="31"/>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A89" s="40"/>
-      <c r="B89" s="40"/>
-      <c r="C89" s="40" t="s">
+      <c r="A89" s="13"/>
+      <c r="B89" s="13"/>
+      <c r="C89" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="D89" s="40"/>
-      <c r="E89" s="14" t="s">
+      <c r="D89" s="13"/>
+      <c r="E89" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="F89" s="14"/>
-      <c r="G89" s="41" t="s">
+      <c r="F89" s="18"/>
+      <c r="G89" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="H89" s="14"/>
-      <c r="I89" s="14"/>
+      <c r="H89" s="18"/>
+      <c r="I89" s="18"/>
       <c r="J89" s="1">
         <v>8</v>
       </c>
@@ -3441,20 +3448,20 @@
       <c r="M89" s="3"/>
       <c r="N89" s="8"/>
       <c r="O89" s="8"/>
-      <c r="P89" s="37" t="s">
+      <c r="P89" s="32" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A90" s="40"/>
-      <c r="B90" s="40"/>
-      <c r="C90" s="40"/>
-      <c r="D90" s="40"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-      <c r="G90" s="14"/>
-      <c r="H90" s="14"/>
-      <c r="I90" s="14"/>
+      <c r="A90" s="13"/>
+      <c r="B90" s="13"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="18"/>
+      <c r="F90" s="18"/>
+      <c r="G90" s="18"/>
+      <c r="H90" s="18"/>
+      <c r="I90" s="18"/>
       <c r="J90" s="1">
         <v>8</v>
       </c>
@@ -3463,22 +3470,22 @@
       <c r="M90" s="3"/>
       <c r="N90" s="8"/>
       <c r="O90" s="8"/>
-      <c r="P90" s="38"/>
+      <c r="P90" s="33"/>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A91" s="40"/>
-      <c r="B91" s="40"/>
-      <c r="C91" s="40"/>
-      <c r="D91" s="40"/>
-      <c r="E91" s="14" t="s">
+      <c r="A91" s="13"/>
+      <c r="B91" s="13"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="13"/>
+      <c r="E91" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="F91" s="14"/>
-      <c r="G91" s="14" t="s">
+      <c r="F91" s="18"/>
+      <c r="G91" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="H91" s="14"/>
-      <c r="I91" s="14"/>
+      <c r="H91" s="18"/>
+      <c r="I91" s="18"/>
       <c r="J91" s="1">
         <v>8</v>
       </c>
@@ -3487,20 +3494,20 @@
       <c r="M91" s="3"/>
       <c r="N91" s="8"/>
       <c r="O91" s="8"/>
-      <c r="P91" s="38"/>
+      <c r="P91" s="33"/>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A92" s="40"/>
-      <c r="B92" s="40"/>
-      <c r="C92" s="40"/>
-      <c r="D92" s="40"/>
-      <c r="E92" s="14" t="s">
+      <c r="A92" s="13"/>
+      <c r="B92" s="13"/>
+      <c r="C92" s="13"/>
+      <c r="D92" s="13"/>
+      <c r="E92" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="F92" s="14"/>
-      <c r="G92" s="14"/>
-      <c r="H92" s="14"/>
-      <c r="I92" s="14"/>
+      <c r="F92" s="18"/>
+      <c r="G92" s="18"/>
+      <c r="H92" s="18"/>
+      <c r="I92" s="18"/>
       <c r="J92" s="1">
         <v>8</v>
       </c>
@@ -3509,20 +3516,20 @@
       <c r="M92" s="3"/>
       <c r="N92" s="8"/>
       <c r="O92" s="8"/>
-      <c r="P92" s="38"/>
+      <c r="P92" s="33"/>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A93" s="40"/>
-      <c r="B93" s="40"/>
-      <c r="C93" s="40"/>
-      <c r="D93" s="40"/>
-      <c r="E93" s="14" t="s">
+      <c r="A93" s="13"/>
+      <c r="B93" s="13"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="13"/>
+      <c r="E93" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="F93" s="14"/>
-      <c r="G93" s="14"/>
-      <c r="H93" s="14"/>
-      <c r="I93" s="14"/>
+      <c r="F93" s="18"/>
+      <c r="G93" s="18"/>
+      <c r="H93" s="18"/>
+      <c r="I93" s="18"/>
       <c r="J93" s="1">
         <v>8</v>
       </c>
@@ -3531,20 +3538,20 @@
       <c r="M93" s="3"/>
       <c r="N93" s="8"/>
       <c r="O93" s="8"/>
-      <c r="P93" s="38"/>
+      <c r="P93" s="33"/>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A94" s="40"/>
-      <c r="B94" s="40"/>
-      <c r="C94" s="40"/>
-      <c r="D94" s="40"/>
-      <c r="E94" s="14" t="s">
+      <c r="A94" s="13"/>
+      <c r="B94" s="13"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="13"/>
+      <c r="E94" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="F94" s="14"/>
-      <c r="G94" s="14"/>
-      <c r="H94" s="14"/>
-      <c r="I94" s="14"/>
+      <c r="F94" s="18"/>
+      <c r="G94" s="18"/>
+      <c r="H94" s="18"/>
+      <c r="I94" s="18"/>
       <c r="J94" s="1">
         <v>8</v>
       </c>
@@ -3553,20 +3560,20 @@
       <c r="M94" s="3"/>
       <c r="N94" s="8"/>
       <c r="O94" s="8"/>
-      <c r="P94" s="38"/>
+      <c r="P94" s="33"/>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A95" s="40"/>
-      <c r="B95" s="40"/>
-      <c r="C95" s="40"/>
-      <c r="D95" s="40"/>
-      <c r="E95" s="14" t="s">
+      <c r="A95" s="13"/>
+      <c r="B95" s="13"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="13"/>
+      <c r="E95" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="F95" s="14"/>
-      <c r="G95" s="14"/>
-      <c r="H95" s="14"/>
-      <c r="I95" s="14"/>
+      <c r="F95" s="18"/>
+      <c r="G95" s="18"/>
+      <c r="H95" s="18"/>
+      <c r="I95" s="18"/>
       <c r="J95" s="1">
         <v>8</v>
       </c>
@@ -3575,7 +3582,7 @@
       <c r="M95" s="3"/>
       <c r="N95" s="8"/>
       <c r="O95" s="8"/>
-      <c r="P95" s="38"/>
+      <c r="P95" s="33"/>
     </row>
     <row r="96" spans="1:16" ht="28.8" x14ac:dyDescent="0.25">
       <c r="J96" s="1">
@@ -3587,484 +3594,600 @@
       </c>
     </row>
     <row r="98" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="39" t="s">
+      <c r="A98" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="B98" s="39"/>
-      <c r="C98" s="39"/>
-      <c r="D98" s="39"/>
-      <c r="E98" s="39"/>
-      <c r="F98" s="39"/>
-      <c r="G98" s="39"/>
-      <c r="H98" s="39"/>
-      <c r="I98" s="39"/>
-      <c r="J98" s="39"/>
-      <c r="K98" s="39"/>
-      <c r="L98" s="39"/>
-      <c r="M98" s="39"/>
-      <c r="N98" s="39"/>
-      <c r="O98" s="39"/>
-      <c r="P98" s="39"/>
+      <c r="B98" s="34"/>
+      <c r="C98" s="34"/>
+      <c r="D98" s="34"/>
+      <c r="E98" s="34"/>
+      <c r="F98" s="34"/>
+      <c r="G98" s="34"/>
+      <c r="H98" s="34"/>
+      <c r="I98" s="34"/>
+      <c r="J98" s="34"/>
+      <c r="K98" s="34"/>
+      <c r="L98" s="34"/>
+      <c r="M98" s="34"/>
+      <c r="N98" s="34"/>
+      <c r="O98" s="34"/>
+      <c r="P98" s="34"/>
       <c r="Q98" s="11" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A99" s="39"/>
-      <c r="B99" s="39"/>
-      <c r="C99" s="39"/>
-      <c r="D99" s="39"/>
-      <c r="E99" s="39"/>
-      <c r="F99" s="39"/>
-      <c r="G99" s="39"/>
-      <c r="H99" s="39"/>
-      <c r="I99" s="39"/>
-      <c r="J99" s="39"/>
-      <c r="K99" s="39"/>
-      <c r="L99" s="39"/>
-      <c r="M99" s="39"/>
-      <c r="N99" s="39"/>
-      <c r="O99" s="39"/>
-      <c r="P99" s="39"/>
+      <c r="A99" s="34"/>
+      <c r="B99" s="34"/>
+      <c r="C99" s="34"/>
+      <c r="D99" s="34"/>
+      <c r="E99" s="34"/>
+      <c r="F99" s="34"/>
+      <c r="G99" s="34"/>
+      <c r="H99" s="34"/>
+      <c r="I99" s="34"/>
+      <c r="J99" s="34"/>
+      <c r="K99" s="34"/>
+      <c r="L99" s="34"/>
+      <c r="M99" s="34"/>
+      <c r="N99" s="34"/>
+      <c r="O99" s="34"/>
+      <c r="P99" s="34"/>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A100" s="39"/>
-      <c r="B100" s="39"/>
-      <c r="C100" s="39"/>
-      <c r="D100" s="39"/>
-      <c r="E100" s="39"/>
-      <c r="F100" s="39"/>
-      <c r="G100" s="39"/>
-      <c r="H100" s="39"/>
-      <c r="I100" s="39"/>
-      <c r="J100" s="39"/>
-      <c r="K100" s="39"/>
-      <c r="L100" s="39"/>
-      <c r="M100" s="39"/>
-      <c r="N100" s="39"/>
-      <c r="O100" s="39"/>
-      <c r="P100" s="39"/>
+      <c r="A100" s="34"/>
+      <c r="B100" s="34"/>
+      <c r="C100" s="34"/>
+      <c r="D100" s="34"/>
+      <c r="E100" s="34"/>
+      <c r="F100" s="34"/>
+      <c r="G100" s="34"/>
+      <c r="H100" s="34"/>
+      <c r="I100" s="34"/>
+      <c r="J100" s="34"/>
+      <c r="K100" s="34"/>
+      <c r="L100" s="34"/>
+      <c r="M100" s="34"/>
+      <c r="N100" s="34"/>
+      <c r="O100" s="34"/>
+      <c r="P100" s="34"/>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A101" s="39"/>
-      <c r="B101" s="39"/>
-      <c r="C101" s="39"/>
-      <c r="D101" s="39"/>
-      <c r="E101" s="39"/>
-      <c r="F101" s="39"/>
-      <c r="G101" s="39"/>
-      <c r="H101" s="39"/>
-      <c r="I101" s="39"/>
-      <c r="J101" s="39"/>
-      <c r="K101" s="39"/>
-      <c r="L101" s="39"/>
-      <c r="M101" s="39"/>
-      <c r="N101" s="39"/>
-      <c r="O101" s="39"/>
-      <c r="P101" s="39"/>
+      <c r="A101" s="34"/>
+      <c r="B101" s="34"/>
+      <c r="C101" s="34"/>
+      <c r="D101" s="34"/>
+      <c r="E101" s="34"/>
+      <c r="F101" s="34"/>
+      <c r="G101" s="34"/>
+      <c r="H101" s="34"/>
+      <c r="I101" s="34"/>
+      <c r="J101" s="34"/>
+      <c r="K101" s="34"/>
+      <c r="L101" s="34"/>
+      <c r="M101" s="34"/>
+      <c r="N101" s="34"/>
+      <c r="O101" s="34"/>
+      <c r="P101" s="34"/>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A102" s="39"/>
-      <c r="B102" s="39"/>
-      <c r="C102" s="39"/>
-      <c r="D102" s="39"/>
-      <c r="E102" s="39"/>
-      <c r="F102" s="39"/>
-      <c r="G102" s="39"/>
-      <c r="H102" s="39"/>
-      <c r="I102" s="39"/>
-      <c r="J102" s="39"/>
-      <c r="K102" s="39"/>
-      <c r="L102" s="39"/>
-      <c r="M102" s="39"/>
-      <c r="N102" s="39"/>
-      <c r="O102" s="39"/>
-      <c r="P102" s="39"/>
+      <c r="A102" s="34"/>
+      <c r="B102" s="34"/>
+      <c r="C102" s="34"/>
+      <c r="D102" s="34"/>
+      <c r="E102" s="34"/>
+      <c r="F102" s="34"/>
+      <c r="G102" s="34"/>
+      <c r="H102" s="34"/>
+      <c r="I102" s="34"/>
+      <c r="J102" s="34"/>
+      <c r="K102" s="34"/>
+      <c r="L102" s="34"/>
+      <c r="M102" s="34"/>
+      <c r="N102" s="34"/>
+      <c r="O102" s="34"/>
+      <c r="P102" s="34"/>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A103" s="39"/>
-      <c r="B103" s="39"/>
-      <c r="C103" s="39"/>
-      <c r="D103" s="39"/>
-      <c r="E103" s="39"/>
-      <c r="F103" s="39"/>
-      <c r="G103" s="39"/>
-      <c r="H103" s="39"/>
-      <c r="I103" s="39"/>
-      <c r="J103" s="39"/>
-      <c r="K103" s="39"/>
-      <c r="L103" s="39"/>
-      <c r="M103" s="39"/>
-      <c r="N103" s="39"/>
-      <c r="O103" s="39"/>
-      <c r="P103" s="39"/>
+      <c r="A103" s="34"/>
+      <c r="B103" s="34"/>
+      <c r="C103" s="34"/>
+      <c r="D103" s="34"/>
+      <c r="E103" s="34"/>
+      <c r="F103" s="34"/>
+      <c r="G103" s="34"/>
+      <c r="H103" s="34"/>
+      <c r="I103" s="34"/>
+      <c r="J103" s="34"/>
+      <c r="K103" s="34"/>
+      <c r="L103" s="34"/>
+      <c r="M103" s="34"/>
+      <c r="N103" s="34"/>
+      <c r="O103" s="34"/>
+      <c r="P103" s="34"/>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A104" s="39"/>
-      <c r="B104" s="39"/>
-      <c r="C104" s="39"/>
-      <c r="D104" s="39"/>
-      <c r="E104" s="39"/>
-      <c r="F104" s="39"/>
-      <c r="G104" s="39"/>
-      <c r="H104" s="39"/>
-      <c r="I104" s="39"/>
-      <c r="J104" s="39"/>
-      <c r="K104" s="39"/>
-      <c r="L104" s="39"/>
-      <c r="M104" s="39"/>
-      <c r="N104" s="39"/>
-      <c r="O104" s="39"/>
-      <c r="P104" s="39"/>
+      <c r="A104" s="34"/>
+      <c r="B104" s="34"/>
+      <c r="C104" s="34"/>
+      <c r="D104" s="34"/>
+      <c r="E104" s="34"/>
+      <c r="F104" s="34"/>
+      <c r="G104" s="34"/>
+      <c r="H104" s="34"/>
+      <c r="I104" s="34"/>
+      <c r="J104" s="34"/>
+      <c r="K104" s="34"/>
+      <c r="L104" s="34"/>
+      <c r="M104" s="34"/>
+      <c r="N104" s="34"/>
+      <c r="O104" s="34"/>
+      <c r="P104" s="34"/>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A105" s="39"/>
-      <c r="B105" s="39"/>
-      <c r="C105" s="39"/>
-      <c r="D105" s="39"/>
-      <c r="E105" s="39"/>
-      <c r="F105" s="39"/>
-      <c r="G105" s="39"/>
-      <c r="H105" s="39"/>
-      <c r="I105" s="39"/>
-      <c r="J105" s="39"/>
-      <c r="K105" s="39"/>
-      <c r="L105" s="39"/>
-      <c r="M105" s="39"/>
-      <c r="N105" s="39"/>
-      <c r="O105" s="39"/>
-      <c r="P105" s="39"/>
+      <c r="A105" s="34"/>
+      <c r="B105" s="34"/>
+      <c r="C105" s="34"/>
+      <c r="D105" s="34"/>
+      <c r="E105" s="34"/>
+      <c r="F105" s="34"/>
+      <c r="G105" s="34"/>
+      <c r="H105" s="34"/>
+      <c r="I105" s="34"/>
+      <c r="J105" s="34"/>
+      <c r="K105" s="34"/>
+      <c r="L105" s="34"/>
+      <c r="M105" s="34"/>
+      <c r="N105" s="34"/>
+      <c r="O105" s="34"/>
+      <c r="P105" s="34"/>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A106" s="39"/>
-      <c r="B106" s="39"/>
-      <c r="C106" s="39"/>
-      <c r="D106" s="39"/>
-      <c r="E106" s="39"/>
-      <c r="F106" s="39"/>
-      <c r="G106" s="39"/>
-      <c r="H106" s="39"/>
-      <c r="I106" s="39"/>
-      <c r="J106" s="39"/>
-      <c r="K106" s="39"/>
-      <c r="L106" s="39"/>
-      <c r="M106" s="39"/>
-      <c r="N106" s="39"/>
-      <c r="O106" s="39"/>
-      <c r="P106" s="39"/>
+      <c r="A106" s="34"/>
+      <c r="B106" s="34"/>
+      <c r="C106" s="34"/>
+      <c r="D106" s="34"/>
+      <c r="E106" s="34"/>
+      <c r="F106" s="34"/>
+      <c r="G106" s="34"/>
+      <c r="H106" s="34"/>
+      <c r="I106" s="34"/>
+      <c r="J106" s="34"/>
+      <c r="K106" s="34"/>
+      <c r="L106" s="34"/>
+      <c r="M106" s="34"/>
+      <c r="N106" s="34"/>
+      <c r="O106" s="34"/>
+      <c r="P106" s="34"/>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A107" s="39"/>
-      <c r="B107" s="39"/>
-      <c r="C107" s="39"/>
-      <c r="D107" s="39"/>
-      <c r="E107" s="39"/>
-      <c r="F107" s="39"/>
-      <c r="G107" s="39"/>
-      <c r="H107" s="39"/>
-      <c r="I107" s="39"/>
-      <c r="J107" s="39"/>
-      <c r="K107" s="39"/>
-      <c r="L107" s="39"/>
-      <c r="M107" s="39"/>
-      <c r="N107" s="39"/>
-      <c r="O107" s="39"/>
-      <c r="P107" s="39"/>
+      <c r="A107" s="34"/>
+      <c r="B107" s="34"/>
+      <c r="C107" s="34"/>
+      <c r="D107" s="34"/>
+      <c r="E107" s="34"/>
+      <c r="F107" s="34"/>
+      <c r="G107" s="34"/>
+      <c r="H107" s="34"/>
+      <c r="I107" s="34"/>
+      <c r="J107" s="34"/>
+      <c r="K107" s="34"/>
+      <c r="L107" s="34"/>
+      <c r="M107" s="34"/>
+      <c r="N107" s="34"/>
+      <c r="O107" s="34"/>
+      <c r="P107" s="34"/>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A108" s="39"/>
-      <c r="B108" s="39"/>
-      <c r="C108" s="39"/>
-      <c r="D108" s="39"/>
-      <c r="E108" s="39"/>
-      <c r="F108" s="39"/>
-      <c r="G108" s="39"/>
-      <c r="H108" s="39"/>
-      <c r="I108" s="39"/>
-      <c r="J108" s="39"/>
-      <c r="K108" s="39"/>
-      <c r="L108" s="39"/>
-      <c r="M108" s="39"/>
-      <c r="N108" s="39"/>
-      <c r="O108" s="39"/>
-      <c r="P108" s="39"/>
+      <c r="A108" s="34"/>
+      <c r="B108" s="34"/>
+      <c r="C108" s="34"/>
+      <c r="D108" s="34"/>
+      <c r="E108" s="34"/>
+      <c r="F108" s="34"/>
+      <c r="G108" s="34"/>
+      <c r="H108" s="34"/>
+      <c r="I108" s="34"/>
+      <c r="J108" s="34"/>
+      <c r="K108" s="34"/>
+      <c r="L108" s="34"/>
+      <c r="M108" s="34"/>
+      <c r="N108" s="34"/>
+      <c r="O108" s="34"/>
+      <c r="P108" s="34"/>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A109" s="39"/>
-      <c r="B109" s="39"/>
-      <c r="C109" s="39"/>
-      <c r="D109" s="39"/>
-      <c r="E109" s="39"/>
-      <c r="F109" s="39"/>
-      <c r="G109" s="39"/>
-      <c r="H109" s="39"/>
-      <c r="I109" s="39"/>
-      <c r="J109" s="39"/>
-      <c r="K109" s="39"/>
-      <c r="L109" s="39"/>
-      <c r="M109" s="39"/>
-      <c r="N109" s="39"/>
-      <c r="O109" s="39"/>
-      <c r="P109" s="39"/>
+      <c r="A109" s="34"/>
+      <c r="B109" s="34"/>
+      <c r="C109" s="34"/>
+      <c r="D109" s="34"/>
+      <c r="E109" s="34"/>
+      <c r="F109" s="34"/>
+      <c r="G109" s="34"/>
+      <c r="H109" s="34"/>
+      <c r="I109" s="34"/>
+      <c r="J109" s="34"/>
+      <c r="K109" s="34"/>
+      <c r="L109" s="34"/>
+      <c r="M109" s="34"/>
+      <c r="N109" s="34"/>
+      <c r="O109" s="34"/>
+      <c r="P109" s="34"/>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A110" s="39"/>
-      <c r="B110" s="39"/>
-      <c r="C110" s="39"/>
-      <c r="D110" s="39"/>
-      <c r="E110" s="39"/>
-      <c r="F110" s="39"/>
-      <c r="G110" s="39"/>
-      <c r="H110" s="39"/>
-      <c r="I110" s="39"/>
-      <c r="J110" s="39"/>
-      <c r="K110" s="39"/>
-      <c r="L110" s="39"/>
-      <c r="M110" s="39"/>
-      <c r="N110" s="39"/>
-      <c r="O110" s="39"/>
-      <c r="P110" s="39"/>
+      <c r="A110" s="34"/>
+      <c r="B110" s="34"/>
+      <c r="C110" s="34"/>
+      <c r="D110" s="34"/>
+      <c r="E110" s="34"/>
+      <c r="F110" s="34"/>
+      <c r="G110" s="34"/>
+      <c r="H110" s="34"/>
+      <c r="I110" s="34"/>
+      <c r="J110" s="34"/>
+      <c r="K110" s="34"/>
+      <c r="L110" s="34"/>
+      <c r="M110" s="34"/>
+      <c r="N110" s="34"/>
+      <c r="O110" s="34"/>
+      <c r="P110" s="34"/>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A111" s="39"/>
-      <c r="B111" s="39"/>
-      <c r="C111" s="39"/>
-      <c r="D111" s="39"/>
-      <c r="E111" s="39"/>
-      <c r="F111" s="39"/>
-      <c r="G111" s="39"/>
-      <c r="H111" s="39"/>
-      <c r="I111" s="39"/>
-      <c r="J111" s="39"/>
-      <c r="K111" s="39"/>
-      <c r="L111" s="39"/>
-      <c r="M111" s="39"/>
-      <c r="N111" s="39"/>
-      <c r="O111" s="39"/>
-      <c r="P111" s="39"/>
+      <c r="A111" s="34"/>
+      <c r="B111" s="34"/>
+      <c r="C111" s="34"/>
+      <c r="D111" s="34"/>
+      <c r="E111" s="34"/>
+      <c r="F111" s="34"/>
+      <c r="G111" s="34"/>
+      <c r="H111" s="34"/>
+      <c r="I111" s="34"/>
+      <c r="J111" s="34"/>
+      <c r="K111" s="34"/>
+      <c r="L111" s="34"/>
+      <c r="M111" s="34"/>
+      <c r="N111" s="34"/>
+      <c r="O111" s="34"/>
+      <c r="P111" s="34"/>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A112" s="39"/>
-      <c r="B112" s="39"/>
-      <c r="C112" s="39"/>
-      <c r="D112" s="39"/>
-      <c r="E112" s="39"/>
-      <c r="F112" s="39"/>
-      <c r="G112" s="39"/>
-      <c r="H112" s="39"/>
-      <c r="I112" s="39"/>
-      <c r="J112" s="39"/>
-      <c r="K112" s="39"/>
-      <c r="L112" s="39"/>
-      <c r="M112" s="39"/>
-      <c r="N112" s="39"/>
-      <c r="O112" s="39"/>
-      <c r="P112" s="39"/>
+      <c r="A112" s="34"/>
+      <c r="B112" s="34"/>
+      <c r="C112" s="34"/>
+      <c r="D112" s="34"/>
+      <c r="E112" s="34"/>
+      <c r="F112" s="34"/>
+      <c r="G112" s="34"/>
+      <c r="H112" s="34"/>
+      <c r="I112" s="34"/>
+      <c r="J112" s="34"/>
+      <c r="K112" s="34"/>
+      <c r="L112" s="34"/>
+      <c r="M112" s="34"/>
+      <c r="N112" s="34"/>
+      <c r="O112" s="34"/>
+      <c r="P112" s="34"/>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A113" s="39"/>
-      <c r="B113" s="39"/>
-      <c r="C113" s="39"/>
-      <c r="D113" s="39"/>
-      <c r="E113" s="39"/>
-      <c r="F113" s="39"/>
-      <c r="G113" s="39"/>
-      <c r="H113" s="39"/>
-      <c r="I113" s="39"/>
-      <c r="J113" s="39"/>
-      <c r="K113" s="39"/>
-      <c r="L113" s="39"/>
-      <c r="M113" s="39"/>
-      <c r="N113" s="39"/>
-      <c r="O113" s="39"/>
-      <c r="P113" s="39"/>
+      <c r="A113" s="34"/>
+      <c r="B113" s="34"/>
+      <c r="C113" s="34"/>
+      <c r="D113" s="34"/>
+      <c r="E113" s="34"/>
+      <c r="F113" s="34"/>
+      <c r="G113" s="34"/>
+      <c r="H113" s="34"/>
+      <c r="I113" s="34"/>
+      <c r="J113" s="34"/>
+      <c r="K113" s="34"/>
+      <c r="L113" s="34"/>
+      <c r="M113" s="34"/>
+      <c r="N113" s="34"/>
+      <c r="O113" s="34"/>
+      <c r="P113" s="34"/>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A114" s="39"/>
-      <c r="B114" s="39"/>
-      <c r="C114" s="39"/>
-      <c r="D114" s="39"/>
-      <c r="E114" s="39"/>
-      <c r="F114" s="39"/>
-      <c r="G114" s="39"/>
-      <c r="H114" s="39"/>
-      <c r="I114" s="39"/>
-      <c r="J114" s="39"/>
-      <c r="K114" s="39"/>
-      <c r="L114" s="39"/>
-      <c r="M114" s="39"/>
-      <c r="N114" s="39"/>
-      <c r="O114" s="39"/>
-      <c r="P114" s="39"/>
+      <c r="A114" s="34"/>
+      <c r="B114" s="34"/>
+      <c r="C114" s="34"/>
+      <c r="D114" s="34"/>
+      <c r="E114" s="34"/>
+      <c r="F114" s="34"/>
+      <c r="G114" s="34"/>
+      <c r="H114" s="34"/>
+      <c r="I114" s="34"/>
+      <c r="J114" s="34"/>
+      <c r="K114" s="34"/>
+      <c r="L114" s="34"/>
+      <c r="M114" s="34"/>
+      <c r="N114" s="34"/>
+      <c r="O114" s="34"/>
+      <c r="P114" s="34"/>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A115" s="39"/>
-      <c r="B115" s="39"/>
-      <c r="C115" s="39"/>
-      <c r="D115" s="39"/>
-      <c r="E115" s="39"/>
-      <c r="F115" s="39"/>
-      <c r="G115" s="39"/>
-      <c r="H115" s="39"/>
-      <c r="I115" s="39"/>
-      <c r="J115" s="39"/>
-      <c r="K115" s="39"/>
-      <c r="L115" s="39"/>
-      <c r="M115" s="39"/>
-      <c r="N115" s="39"/>
-      <c r="O115" s="39"/>
-      <c r="P115" s="39"/>
+      <c r="A115" s="34"/>
+      <c r="B115" s="34"/>
+      <c r="C115" s="34"/>
+      <c r="D115" s="34"/>
+      <c r="E115" s="34"/>
+      <c r="F115" s="34"/>
+      <c r="G115" s="34"/>
+      <c r="H115" s="34"/>
+      <c r="I115" s="34"/>
+      <c r="J115" s="34"/>
+      <c r="K115" s="34"/>
+      <c r="L115" s="34"/>
+      <c r="M115" s="34"/>
+      <c r="N115" s="34"/>
+      <c r="O115" s="34"/>
+      <c r="P115" s="34"/>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A116" s="39"/>
-      <c r="B116" s="39"/>
-      <c r="C116" s="39"/>
-      <c r="D116" s="39"/>
-      <c r="E116" s="39"/>
-      <c r="F116" s="39"/>
-      <c r="G116" s="39"/>
-      <c r="H116" s="39"/>
-      <c r="I116" s="39"/>
-      <c r="J116" s="39"/>
-      <c r="K116" s="39"/>
-      <c r="L116" s="39"/>
-      <c r="M116" s="39"/>
-      <c r="N116" s="39"/>
-      <c r="O116" s="39"/>
-      <c r="P116" s="39"/>
+      <c r="A116" s="34"/>
+      <c r="B116" s="34"/>
+      <c r="C116" s="34"/>
+      <c r="D116" s="34"/>
+      <c r="E116" s="34"/>
+      <c r="F116" s="34"/>
+      <c r="G116" s="34"/>
+      <c r="H116" s="34"/>
+      <c r="I116" s="34"/>
+      <c r="J116" s="34"/>
+      <c r="K116" s="34"/>
+      <c r="L116" s="34"/>
+      <c r="M116" s="34"/>
+      <c r="N116" s="34"/>
+      <c r="O116" s="34"/>
+      <c r="P116" s="34"/>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A117" s="39"/>
-      <c r="B117" s="39"/>
-      <c r="C117" s="39"/>
-      <c r="D117" s="39"/>
-      <c r="E117" s="39"/>
-      <c r="F117" s="39"/>
-      <c r="G117" s="39"/>
-      <c r="H117" s="39"/>
-      <c r="I117" s="39"/>
-      <c r="J117" s="39"/>
-      <c r="K117" s="39"/>
-      <c r="L117" s="39"/>
-      <c r="M117" s="39"/>
-      <c r="N117" s="39"/>
-      <c r="O117" s="39"/>
-      <c r="P117" s="39"/>
+      <c r="A117" s="34"/>
+      <c r="B117" s="34"/>
+      <c r="C117" s="34"/>
+      <c r="D117" s="34"/>
+      <c r="E117" s="34"/>
+      <c r="F117" s="34"/>
+      <c r="G117" s="34"/>
+      <c r="H117" s="34"/>
+      <c r="I117" s="34"/>
+      <c r="J117" s="34"/>
+      <c r="K117" s="34"/>
+      <c r="L117" s="34"/>
+      <c r="M117" s="34"/>
+      <c r="N117" s="34"/>
+      <c r="O117" s="34"/>
+      <c r="P117" s="34"/>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A118" s="39"/>
-      <c r="B118" s="39"/>
-      <c r="C118" s="39"/>
-      <c r="D118" s="39"/>
-      <c r="E118" s="39"/>
-      <c r="F118" s="39"/>
-      <c r="G118" s="39"/>
-      <c r="H118" s="39"/>
-      <c r="I118" s="39"/>
-      <c r="J118" s="39"/>
-      <c r="K118" s="39"/>
-      <c r="L118" s="39"/>
-      <c r="M118" s="39"/>
-      <c r="N118" s="39"/>
-      <c r="O118" s="39"/>
-      <c r="P118" s="39"/>
+      <c r="A118" s="34"/>
+      <c r="B118" s="34"/>
+      <c r="C118" s="34"/>
+      <c r="D118" s="34"/>
+      <c r="E118" s="34"/>
+      <c r="F118" s="34"/>
+      <c r="G118" s="34"/>
+      <c r="H118" s="34"/>
+      <c r="I118" s="34"/>
+      <c r="J118" s="34"/>
+      <c r="K118" s="34"/>
+      <c r="L118" s="34"/>
+      <c r="M118" s="34"/>
+      <c r="N118" s="34"/>
+      <c r="O118" s="34"/>
+      <c r="P118" s="34"/>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A119" s="39"/>
-      <c r="B119" s="39"/>
-      <c r="C119" s="39"/>
-      <c r="D119" s="39"/>
-      <c r="E119" s="39"/>
-      <c r="F119" s="39"/>
-      <c r="G119" s="39"/>
-      <c r="H119" s="39"/>
-      <c r="I119" s="39"/>
-      <c r="J119" s="39"/>
-      <c r="K119" s="39"/>
-      <c r="L119" s="39"/>
-      <c r="M119" s="39"/>
-      <c r="N119" s="39"/>
-      <c r="O119" s="39"/>
-      <c r="P119" s="39"/>
+      <c r="A119" s="34"/>
+      <c r="B119" s="34"/>
+      <c r="C119" s="34"/>
+      <c r="D119" s="34"/>
+      <c r="E119" s="34"/>
+      <c r="F119" s="34"/>
+      <c r="G119" s="34"/>
+      <c r="H119" s="34"/>
+      <c r="I119" s="34"/>
+      <c r="J119" s="34"/>
+      <c r="K119" s="34"/>
+      <c r="L119" s="34"/>
+      <c r="M119" s="34"/>
+      <c r="N119" s="34"/>
+      <c r="O119" s="34"/>
+      <c r="P119" s="34"/>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A120" s="39"/>
-      <c r="B120" s="39"/>
-      <c r="C120" s="39"/>
-      <c r="D120" s="39"/>
-      <c r="E120" s="39"/>
-      <c r="F120" s="39"/>
-      <c r="G120" s="39"/>
-      <c r="H120" s="39"/>
-      <c r="I120" s="39"/>
-      <c r="J120" s="39"/>
-      <c r="K120" s="39"/>
-      <c r="L120" s="39"/>
-      <c r="M120" s="39"/>
-      <c r="N120" s="39"/>
-      <c r="O120" s="39"/>
-      <c r="P120" s="39"/>
+      <c r="A120" s="34"/>
+      <c r="B120" s="34"/>
+      <c r="C120" s="34"/>
+      <c r="D120" s="34"/>
+      <c r="E120" s="34"/>
+      <c r="F120" s="34"/>
+      <c r="G120" s="34"/>
+      <c r="H120" s="34"/>
+      <c r="I120" s="34"/>
+      <c r="J120" s="34"/>
+      <c r="K120" s="34"/>
+      <c r="L120" s="34"/>
+      <c r="M120" s="34"/>
+      <c r="N120" s="34"/>
+      <c r="O120" s="34"/>
+      <c r="P120" s="34"/>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A121" s="39"/>
-      <c r="B121" s="39"/>
-      <c r="C121" s="39"/>
-      <c r="D121" s="39"/>
-      <c r="E121" s="39"/>
-      <c r="F121" s="39"/>
-      <c r="G121" s="39"/>
-      <c r="H121" s="39"/>
-      <c r="I121" s="39"/>
-      <c r="J121" s="39"/>
-      <c r="K121" s="39"/>
-      <c r="L121" s="39"/>
-      <c r="M121" s="39"/>
-      <c r="N121" s="39"/>
-      <c r="O121" s="39"/>
-      <c r="P121" s="39"/>
+      <c r="A121" s="34"/>
+      <c r="B121" s="34"/>
+      <c r="C121" s="34"/>
+      <c r="D121" s="34"/>
+      <c r="E121" s="34"/>
+      <c r="F121" s="34"/>
+      <c r="G121" s="34"/>
+      <c r="H121" s="34"/>
+      <c r="I121" s="34"/>
+      <c r="J121" s="34"/>
+      <c r="K121" s="34"/>
+      <c r="L121" s="34"/>
+      <c r="M121" s="34"/>
+      <c r="N121" s="34"/>
+      <c r="O121" s="34"/>
+      <c r="P121" s="34"/>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A122" s="39"/>
-      <c r="B122" s="39"/>
-      <c r="C122" s="39"/>
-      <c r="D122" s="39"/>
-      <c r="E122" s="39"/>
-      <c r="F122" s="39"/>
-      <c r="G122" s="39"/>
-      <c r="H122" s="39"/>
-      <c r="I122" s="39"/>
-      <c r="J122" s="39"/>
-      <c r="K122" s="39"/>
-      <c r="L122" s="39"/>
-      <c r="M122" s="39"/>
-      <c r="N122" s="39"/>
-      <c r="O122" s="39"/>
-      <c r="P122" s="39"/>
+      <c r="A122" s="34"/>
+      <c r="B122" s="34"/>
+      <c r="C122" s="34"/>
+      <c r="D122" s="34"/>
+      <c r="E122" s="34"/>
+      <c r="F122" s="34"/>
+      <c r="G122" s="34"/>
+      <c r="H122" s="34"/>
+      <c r="I122" s="34"/>
+      <c r="J122" s="34"/>
+      <c r="K122" s="34"/>
+      <c r="L122" s="34"/>
+      <c r="M122" s="34"/>
+      <c r="N122" s="34"/>
+      <c r="O122" s="34"/>
+      <c r="P122" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="186">
-    <mergeCell ref="A47:B63"/>
-    <mergeCell ref="C58:D63"/>
-    <mergeCell ref="A5:B6"/>
-    <mergeCell ref="C5:F6"/>
-    <mergeCell ref="A7:B16"/>
-    <mergeCell ref="C17:D19"/>
-    <mergeCell ref="G5:I6"/>
-    <mergeCell ref="G18:I19"/>
-    <mergeCell ref="G24:I25"/>
-    <mergeCell ref="G20:I23"/>
-    <mergeCell ref="G26:I29"/>
-    <mergeCell ref="G31:I36"/>
-    <mergeCell ref="G39:I40"/>
-    <mergeCell ref="G41:I43"/>
-    <mergeCell ref="E44:F45"/>
-    <mergeCell ref="G47:I49"/>
-    <mergeCell ref="G50:I51"/>
-    <mergeCell ref="G52:I57"/>
-    <mergeCell ref="G58:I59"/>
-    <mergeCell ref="G60:I61"/>
-    <mergeCell ref="E62:F63"/>
-    <mergeCell ref="G62:I63"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G71:I71"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="G72:I72"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="J78:J79"/>
+    <mergeCell ref="J80:J81"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="G83:I83"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="G84:I84"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="G85:I85"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="G74:I74"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="G77:I77"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="G82:I82"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="P7:P10"/>
+    <mergeCell ref="P12:P14"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="P17:P25"/>
+    <mergeCell ref="P26:P29"/>
+    <mergeCell ref="P32:P36"/>
+    <mergeCell ref="P41:P45"/>
+    <mergeCell ref="P47:P63"/>
+    <mergeCell ref="P64:P65"/>
+    <mergeCell ref="P67:P68"/>
+    <mergeCell ref="P70:P77"/>
+    <mergeCell ref="P78:P81"/>
+    <mergeCell ref="P84:P88"/>
+    <mergeCell ref="P89:P95"/>
+    <mergeCell ref="A98:P122"/>
+    <mergeCell ref="C82:D88"/>
+    <mergeCell ref="G89:I90"/>
+    <mergeCell ref="G91:I95"/>
+    <mergeCell ref="E89:F90"/>
+    <mergeCell ref="A76:B95"/>
+    <mergeCell ref="C89:D95"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="G88:I88"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="G86:I86"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="G87:I87"/>
     <mergeCell ref="A1:O4"/>
     <mergeCell ref="C64:D69"/>
     <mergeCell ref="C70:D71"/>
@@ -4089,146 +4212,30 @@
     <mergeCell ref="C26:D30"/>
     <mergeCell ref="C31:D40"/>
     <mergeCell ref="C41:D46"/>
-    <mergeCell ref="P84:P88"/>
-    <mergeCell ref="P89:P95"/>
-    <mergeCell ref="A98:P122"/>
-    <mergeCell ref="C82:D88"/>
-    <mergeCell ref="G89:I90"/>
-    <mergeCell ref="G91:I95"/>
-    <mergeCell ref="E89:F90"/>
-    <mergeCell ref="A76:B95"/>
-    <mergeCell ref="C89:D95"/>
-    <mergeCell ref="P17:P25"/>
-    <mergeCell ref="P26:P29"/>
-    <mergeCell ref="P32:P36"/>
-    <mergeCell ref="P41:P45"/>
-    <mergeCell ref="P47:P63"/>
-    <mergeCell ref="P64:P65"/>
-    <mergeCell ref="P67:P68"/>
-    <mergeCell ref="P70:P77"/>
-    <mergeCell ref="P78:P81"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="P7:P10"/>
-    <mergeCell ref="P12:P14"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="G88:I88"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="E92:F92"/>
-    <mergeCell ref="E93:F93"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="J78:J79"/>
-    <mergeCell ref="J80:J81"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="G83:I83"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="G84:I84"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="G85:I85"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="G86:I86"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="G74:I74"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="G77:I77"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="G82:I82"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="G70:I70"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="G71:I71"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="G72:I72"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="A47:B63"/>
+    <mergeCell ref="C58:D63"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="C5:F6"/>
+    <mergeCell ref="A7:B16"/>
+    <mergeCell ref="C17:D19"/>
+    <mergeCell ref="G5:I6"/>
+    <mergeCell ref="G18:I19"/>
+    <mergeCell ref="G24:I25"/>
+    <mergeCell ref="G20:I23"/>
+    <mergeCell ref="G26:I29"/>
+    <mergeCell ref="G31:I36"/>
+    <mergeCell ref="G39:I40"/>
+    <mergeCell ref="G41:I43"/>
+    <mergeCell ref="E44:F45"/>
+    <mergeCell ref="G47:I49"/>
+    <mergeCell ref="G50:I51"/>
+    <mergeCell ref="G52:I57"/>
+    <mergeCell ref="G58:I59"/>
+    <mergeCell ref="G60:I61"/>
+    <mergeCell ref="E62:F63"/>
+    <mergeCell ref="G62:I63"/>
     <mergeCell ref="E48:F48"/>
     <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/迁移相关/模块迁移列表.xlsx
+++ b/迁移相关/模块迁移列表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="183">
   <si>
     <t>一卡通管理</t>
   </si>
@@ -614,6 +614,10 @@
   </si>
   <si>
     <t>TC_USERBINDING（不需要？）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TE_Term</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -856,124 +860,124 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1347,8 +1351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20:I23"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="G72" sqref="G72:I72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1360,149 +1364,149 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
     </row>
     <row r="2" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
     </row>
     <row r="3" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
     </row>
     <row r="4" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14" t="s">
+      <c r="B5" s="33"/>
+      <c r="C5" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14" t="s">
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14" t="s">
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="L5" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="14" t="s">
+      <c r="M5" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="14" t="s">
+      <c r="N5" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="O5" s="14" t="s">
+      <c r="O5" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="P5" s="37" t="s">
+      <c r="P5" s="35" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="37"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="35"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13" t="s">
+      <c r="B7" s="44"/>
+      <c r="C7" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="50" t="s">
+      <c r="D7" s="44"/>
+      <c r="E7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="51"/>
-      <c r="G7" s="52" t="s">
+      <c r="F7" s="14"/>
+      <c r="G7" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
       <c r="J7" s="1">
         <v>2</v>
       </c>
@@ -1511,24 +1515,24 @@
       <c r="M7" s="3"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
-      <c r="P7" s="30" t="s">
+      <c r="P7" s="36" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="26" t="s">
+      <c r="A8" s="44"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="26"/>
-      <c r="G8" s="52" t="s">
+      <c r="F8" s="17"/>
+      <c r="G8" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
       <c r="J8" s="1">
         <v>2</v>
       </c>
@@ -1537,22 +1541,22 @@
       <c r="M8" s="3"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
-      <c r="P8" s="31"/>
+      <c r="P8" s="37"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="50" t="s">
+      <c r="A9" s="44"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="51"/>
-      <c r="G9" s="52" t="s">
+      <c r="F9" s="14"/>
+      <c r="G9" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
       <c r="J9" s="1">
         <v>2</v>
       </c>
@@ -1561,22 +1565,22 @@
       <c r="M9" s="3"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
-      <c r="P9" s="31"/>
+      <c r="P9" s="37"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="50" t="s">
+      <c r="A10" s="44"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="51"/>
-      <c r="G10" s="52" t="s">
+      <c r="F10" s="14"/>
+      <c r="G10" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
       <c r="J10" s="1">
         <v>2</v>
       </c>
@@ -1585,22 +1589,22 @@
       <c r="M10" s="3"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
-      <c r="P10" s="31"/>
+      <c r="P10" s="37"/>
     </row>
     <row r="11" spans="1:16" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
+      <c r="A11" s="44"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
       <c r="E11" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F11" s="4"/>
-      <c r="G11" s="52" t="s">
+      <c r="G11" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
       <c r="J11" s="1"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
@@ -1612,21 +1616,21 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13" t="s">
+      <c r="A12" s="44"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="26" t="s">
+      <c r="D12" s="44"/>
+      <c r="E12" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="26"/>
-      <c r="G12" s="52" t="s">
+      <c r="F12" s="17"/>
+      <c r="G12" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
       <c r="J12" s="1">
         <v>2</v>
       </c>
@@ -1635,24 +1639,24 @@
       <c r="M12" s="3"/>
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
-      <c r="P12" s="30" t="s">
+      <c r="P12" s="36" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="26" t="s">
+      <c r="A13" s="44"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="26"/>
-      <c r="G13" s="52" t="s">
+      <c r="F13" s="17"/>
+      <c r="G13" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
       <c r="J13" s="1">
         <v>2</v>
       </c>
@@ -1661,22 +1665,22 @@
       <c r="M13" s="3"/>
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
-      <c r="P13" s="31"/>
+      <c r="P13" s="37"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="26" t="s">
+      <c r="A14" s="44"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="26"/>
-      <c r="G14" s="52" t="s">
+      <c r="F14" s="17"/>
+      <c r="G14" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
       <c r="J14" s="1">
         <v>2</v>
       </c>
@@ -1685,24 +1689,24 @@
       <c r="M14" s="3"/>
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
-      <c r="P14" s="31"/>
+      <c r="P14" s="37"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13" t="s">
+      <c r="A15" s="44"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="26" t="s">
+      <c r="D15" s="44"/>
+      <c r="E15" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="26"/>
-      <c r="G15" s="52" t="s">
+      <c r="F15" s="17"/>
+      <c r="G15" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
       <c r="J15" s="12" t="s">
         <v>171</v>
       </c>
@@ -1716,19 +1720,19 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="26" t="s">
+      <c r="A16" s="44"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="26"/>
-      <c r="G16" s="52" t="s">
+      <c r="F16" s="17"/>
+      <c r="G16" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
       <c r="J16" s="12" t="s">
         <v>172</v>
       </c>
@@ -1740,221 +1744,221 @@
       <c r="P16" s="38"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15" t="s">
+      <c r="B17" s="49"/>
+      <c r="C17" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="16" t="s">
+      <c r="D17" s="49"/>
+      <c r="E17" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16" t="s">
+      <c r="F17" s="18"/>
+      <c r="G17" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
       <c r="J17" s="1"/>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
       <c r="M17" s="3"/>
       <c r="N17" s="8"/>
       <c r="O17" s="8"/>
-      <c r="P17" s="30" t="s">
+      <c r="P17" s="36" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="16" t="s">
+      <c r="A18" s="49"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16" t="s">
+      <c r="F18" s="18"/>
+      <c r="G18" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
       <c r="J18" s="1"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
       <c r="M18" s="3"/>
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
-      <c r="P18" s="31"/>
+      <c r="P18" s="37"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="16" t="s">
+      <c r="A19" s="49"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
       <c r="J19" s="1"/>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
       <c r="M19" s="3"/>
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
-      <c r="P19" s="31"/>
+      <c r="P19" s="37"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15" t="s">
+      <c r="A20" s="49"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="16" t="s">
+      <c r="D20" s="49"/>
+      <c r="E20" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16" t="s">
+      <c r="F20" s="18"/>
+      <c r="G20" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
       <c r="J20" s="1"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
       <c r="M20" s="3"/>
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
-      <c r="P20" s="31"/>
+      <c r="P20" s="37"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="16" t="s">
+      <c r="A21" s="49"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
       <c r="J21" s="1"/>
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
       <c r="M21" s="3"/>
       <c r="N21" s="8"/>
       <c r="O21" s="8"/>
-      <c r="P21" s="31"/>
+      <c r="P21" s="37"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="16" t="s">
+      <c r="A22" s="49"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
       <c r="J22" s="1"/>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
       <c r="M22" s="3"/>
       <c r="N22" s="8"/>
       <c r="O22" s="8"/>
-      <c r="P22" s="31"/>
+      <c r="P22" s="37"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="16" t="s">
+      <c r="A23" s="49"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
       <c r="J23" s="1"/>
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
       <c r="M23" s="3"/>
       <c r="N23" s="8"/>
       <c r="O23" s="8"/>
-      <c r="P23" s="31"/>
+      <c r="P23" s="37"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15" t="s">
+      <c r="A24" s="49"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="16" t="s">
+      <c r="D24" s="49"/>
+      <c r="E24" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16" t="s">
+      <c r="F24" s="18"/>
+      <c r="G24" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
       <c r="J24" s="1"/>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
       <c r="M24" s="3"/>
       <c r="N24" s="8"/>
       <c r="O24" s="8"/>
-      <c r="P24" s="31"/>
+      <c r="P24" s="37"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="16" t="s">
+      <c r="A25" s="49"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
       <c r="J25" s="1"/>
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
       <c r="M25" s="3"/>
       <c r="N25" s="8"/>
       <c r="O25" s="8"/>
-      <c r="P25" s="31"/>
+      <c r="P25" s="37"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13" t="s">
+      <c r="B26" s="44"/>
+      <c r="C26" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="26" t="s">
+      <c r="D26" s="44"/>
+      <c r="E26" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="F26" s="26"/>
-      <c r="G26" s="17" t="s">
+      <c r="F26" s="17"/>
+      <c r="G26" s="51" t="s">
         <v>173</v>
       </c>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
       <c r="J26" s="1">
         <v>2</v>
       </c>
@@ -1963,22 +1967,22 @@
       <c r="M26" s="3"/>
       <c r="N26" s="8"/>
       <c r="O26" s="8"/>
-      <c r="P26" s="35" t="s">
+      <c r="P26" s="39" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="26" t="s">
+      <c r="A27" s="44"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
       <c r="J27" s="1">
         <v>2</v>
       </c>
@@ -1987,20 +1991,20 @@
       <c r="M27" s="3"/>
       <c r="N27" s="8"/>
       <c r="O27" s="8"/>
-      <c r="P27" s="35"/>
+      <c r="P27" s="39"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="50" t="s">
+      <c r="A28" s="44"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="F28" s="51"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
       <c r="J28" s="1">
         <v>2</v>
       </c>
@@ -2009,20 +2013,20 @@
       <c r="M28" s="3"/>
       <c r="N28" s="8"/>
       <c r="O28" s="8"/>
-      <c r="P28" s="35"/>
+      <c r="P28" s="39"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="50" t="s">
+      <c r="A29" s="44"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="51"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
       <c r="J29" s="1">
         <v>2</v>
       </c>
@@ -2031,17 +2035,17 @@
       <c r="M29" s="3"/>
       <c r="N29" s="8"/>
       <c r="O29" s="8"/>
-      <c r="P29" s="35"/>
+      <c r="P29" s="39"/>
     </row>
     <row r="30" spans="1:16" ht="49.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="22" t="s">
+      <c r="A30" s="44"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="F30" s="22"/>
+      <c r="F30" s="19"/>
       <c r="G30" s="20" t="s">
         <v>174</v>
       </c>
@@ -2058,21 +2062,21 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="29" t="s">
+      <c r="A31" s="44"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="29"/>
-      <c r="E31" s="40" t="s">
+      <c r="D31" s="50"/>
+      <c r="E31" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="F31" s="41"/>
-      <c r="G31" s="19" t="s">
+      <c r="F31" s="23"/>
+      <c r="G31" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
       <c r="J31" s="1"/>
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
@@ -2081,17 +2085,17 @@
       <c r="O31" s="8"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="46" t="s">
+      <c r="A32" s="44"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="F32" s="46"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="52"/>
       <c r="J32" s="1">
         <v>2</v>
       </c>
@@ -2100,22 +2104,22 @@
       <c r="M32" s="3"/>
       <c r="N32" s="8"/>
       <c r="O32" s="8"/>
-      <c r="P32" s="30" t="s">
+      <c r="P32" s="36" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="46" t="s">
+      <c r="A33" s="44"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="F33" s="46"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="52"/>
       <c r="J33" s="1">
         <v>2</v>
       </c>
@@ -2124,20 +2128,20 @@
       <c r="M33" s="3"/>
       <c r="N33" s="8"/>
       <c r="O33" s="8"/>
-      <c r="P33" s="31"/>
+      <c r="P33" s="37"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="46" t="s">
+      <c r="A34" s="44"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="F34" s="46"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="52"/>
       <c r="J34" s="1">
         <v>2</v>
       </c>
@@ -2146,20 +2150,20 @@
       <c r="M34" s="3"/>
       <c r="N34" s="8"/>
       <c r="O34" s="8"/>
-      <c r="P34" s="31"/>
+      <c r="P34" s="37"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="46" t="s">
+      <c r="A35" s="44"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="F35" s="46"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="52"/>
       <c r="J35" s="1">
         <v>2</v>
       </c>
@@ -2168,20 +2172,20 @@
       <c r="M35" s="3"/>
       <c r="N35" s="8"/>
       <c r="O35" s="8"/>
-      <c r="P35" s="31"/>
+      <c r="P35" s="37"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="46" t="s">
+      <c r="A36" s="44"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="F36" s="46"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="52"/>
       <c r="J36" s="1">
         <v>2</v>
       </c>
@@ -2190,22 +2194,22 @@
       <c r="M36" s="3"/>
       <c r="N36" s="8"/>
       <c r="O36" s="8"/>
-      <c r="P36" s="31"/>
+      <c r="P36" s="37"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="46" t="s">
+      <c r="A37" s="44"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="F37" s="46"/>
-      <c r="G37" s="47" t="s">
+      <c r="F37" s="24"/>
+      <c r="G37" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="H37" s="48"/>
-      <c r="I37" s="49"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="31"/>
       <c r="J37" s="1"/>
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
@@ -2214,19 +2218,19 @@
       <c r="O37" s="8"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="46" t="s">
+      <c r="A38" s="44"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="F38" s="46"/>
-      <c r="G38" s="47" t="s">
+      <c r="F38" s="24"/>
+      <c r="G38" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="H38" s="48"/>
-      <c r="I38" s="49"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="31"/>
       <c r="J38" s="1"/>
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
@@ -2235,19 +2239,19 @@
       <c r="O38" s="8"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="40" t="s">
+      <c r="A39" s="44"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="F39" s="41"/>
-      <c r="G39" s="19" t="s">
+      <c r="F39" s="23"/>
+      <c r="G39" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
+      <c r="H39" s="52"/>
+      <c r="I39" s="52"/>
       <c r="J39" s="1"/>
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
@@ -2256,17 +2260,17 @@
       <c r="O39" s="8"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="13"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="40" t="s">
+      <c r="A40" s="44"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="F40" s="41"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="52"/>
       <c r="J40" s="1">
         <v>2</v>
       </c>
@@ -2280,16 +2284,16 @@
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="13"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13" t="s">
+      <c r="A41" s="44"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="D41" s="13"/>
-      <c r="E41" s="22" t="s">
+      <c r="D41" s="44"/>
+      <c r="E41" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="F41" s="22"/>
+      <c r="F41" s="19"/>
       <c r="G41" s="20" t="s">
         <v>165</v>
       </c>
@@ -2303,19 +2307,19 @@
       <c r="M41" s="3"/>
       <c r="N41" s="8"/>
       <c r="O41" s="8"/>
-      <c r="P41" s="30" t="s">
+      <c r="P41" s="36" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="13"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="22" t="s">
+      <c r="A42" s="44"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="F42" s="22"/>
+      <c r="F42" s="19"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
@@ -2327,17 +2331,17 @@
       <c r="M42" s="3"/>
       <c r="N42" s="8"/>
       <c r="O42" s="8"/>
-      <c r="P42" s="31"/>
+      <c r="P42" s="37"/>
     </row>
     <row r="43" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="13"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="22" t="s">
+      <c r="A43" s="44"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="F43" s="22"/>
+      <c r="F43" s="19"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
       <c r="I43" s="21"/>
@@ -2349,18 +2353,18 @@
       <c r="M43" s="3"/>
       <c r="N43" s="8"/>
       <c r="O43" s="8"/>
-      <c r="P43" s="31"/>
+      <c r="P43" s="37"/>
     </row>
     <row r="44" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="13"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="22" t="s">
+      <c r="A44" s="44"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="44"/>
+      <c r="E44" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="F44" s="22"/>
-      <c r="G44" s="42" t="s">
+      <c r="F44" s="19"/>
+      <c r="G44" s="25" t="s">
         <v>175</v>
       </c>
       <c r="H44" s="21"/>
@@ -2373,16 +2377,16 @@
       <c r="M44" s="3"/>
       <c r="N44" s="8"/>
       <c r="O44" s="8"/>
-      <c r="P44" s="31"/>
+      <c r="P44" s="37"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="13"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="42" t="s">
+      <c r="A45" s="44"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="25" t="s">
         <v>176</v>
       </c>
       <c r="H45" s="21"/>
@@ -2395,22 +2399,22 @@
       <c r="M45" s="3"/>
       <c r="N45" s="8"/>
       <c r="O45" s="8"/>
-      <c r="P45" s="31"/>
+      <c r="P45" s="37"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="13"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="18" t="s">
+      <c r="A46" s="44"/>
+      <c r="B46" s="44"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="F46" s="18"/>
-      <c r="G46" s="43" t="s">
+      <c r="F46" s="16"/>
+      <c r="G46" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="H46" s="44"/>
-      <c r="I46" s="45"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="28"/>
       <c r="J46" s="1"/>
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
@@ -2419,23 +2423,23 @@
       <c r="O46" s="8"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="13" t="s">
+      <c r="A47" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13" t="s">
+      <c r="B47" s="44"/>
+      <c r="C47" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="D47" s="13"/>
-      <c r="E47" s="18" t="s">
+      <c r="D47" s="44"/>
+      <c r="E47" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18" t="s">
+      <c r="F47" s="16"/>
+      <c r="G47" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="H47" s="18"/>
-      <c r="I47" s="18"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
       <c r="J47" s="1">
         <v>8</v>
       </c>
@@ -2444,22 +2448,22 @@
       <c r="M47" s="3"/>
       <c r="N47" s="8"/>
       <c r="O47" s="8"/>
-      <c r="P47" s="36" t="s">
+      <c r="P47" s="40" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="13"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="18" t="s">
+      <c r="A48" s="44"/>
+      <c r="B48" s="44"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="44"/>
+      <c r="E48" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="18"/>
-      <c r="I48" s="18"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
       <c r="J48" s="1">
         <v>8</v>
       </c>
@@ -2468,20 +2472,20 @@
       <c r="M48" s="3"/>
       <c r="N48" s="8"/>
       <c r="O48" s="8"/>
-      <c r="P48" s="31"/>
+      <c r="P48" s="37"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="13"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="18" t="s">
+      <c r="A49" s="44"/>
+      <c r="B49" s="44"/>
+      <c r="C49" s="44"/>
+      <c r="D49" s="44"/>
+      <c r="E49" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="18"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
       <c r="J49" s="1">
         <v>4</v>
       </c>
@@ -2490,22 +2494,22 @@
       <c r="M49" s="3"/>
       <c r="N49" s="8"/>
       <c r="O49" s="8"/>
-      <c r="P49" s="31"/>
+      <c r="P49" s="37"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="13"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="18" t="s">
+      <c r="A50" s="44"/>
+      <c r="B50" s="44"/>
+      <c r="C50" s="44"/>
+      <c r="D50" s="44"/>
+      <c r="E50" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18" t="s">
+      <c r="F50" s="16"/>
+      <c r="G50" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="H50" s="18"/>
-      <c r="I50" s="18"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="16"/>
       <c r="J50" s="1">
         <v>4</v>
       </c>
@@ -2514,20 +2518,20 @@
       <c r="M50" s="3"/>
       <c r="N50" s="8"/>
       <c r="O50" s="8"/>
-      <c r="P50" s="31"/>
+      <c r="P50" s="37"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" s="13"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="18" t="s">
+      <c r="A51" s="44"/>
+      <c r="B51" s="44"/>
+      <c r="C51" s="44"/>
+      <c r="D51" s="44"/>
+      <c r="E51" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="18"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16"/>
       <c r="J51" s="1">
         <v>4</v>
       </c>
@@ -2536,24 +2540,24 @@
       <c r="M51" s="3"/>
       <c r="N51" s="8"/>
       <c r="O51" s="8"/>
-      <c r="P51" s="31"/>
+      <c r="P51" s="37"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" s="13"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13" t="s">
+      <c r="A52" s="44"/>
+      <c r="B52" s="44"/>
+      <c r="C52" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="D52" s="13"/>
-      <c r="E52" s="18" t="s">
+      <c r="D52" s="44"/>
+      <c r="E52" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="F52" s="18"/>
-      <c r="G52" s="18" t="s">
+      <c r="F52" s="16"/>
+      <c r="G52" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="H52" s="18"/>
-      <c r="I52" s="18"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
       <c r="J52" s="1">
         <v>4</v>
       </c>
@@ -2562,20 +2566,20 @@
       <c r="M52" s="3"/>
       <c r="N52" s="8"/>
       <c r="O52" s="8"/>
-      <c r="P52" s="31"/>
+      <c r="P52" s="37"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" s="13"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="18" t="s">
+      <c r="A53" s="44"/>
+      <c r="B53" s="44"/>
+      <c r="C53" s="44"/>
+      <c r="D53" s="44"/>
+      <c r="E53" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="18"/>
-      <c r="I53" s="18"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
       <c r="J53" s="1">
         <v>4</v>
       </c>
@@ -2584,20 +2588,20 @@
       <c r="M53" s="3"/>
       <c r="N53" s="8"/>
       <c r="O53" s="8"/>
-      <c r="P53" s="31"/>
+      <c r="P53" s="37"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" s="13"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="18" t="s">
+      <c r="A54" s="44"/>
+      <c r="B54" s="44"/>
+      <c r="C54" s="44"/>
+      <c r="D54" s="44"/>
+      <c r="E54" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="F54" s="18"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="18"/>
-      <c r="I54" s="18"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
       <c r="J54" s="1">
         <v>4</v>
       </c>
@@ -2606,20 +2610,20 @@
       <c r="M54" s="3"/>
       <c r="N54" s="8"/>
       <c r="O54" s="8"/>
-      <c r="P54" s="31"/>
+      <c r="P54" s="37"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" s="13"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="18" t="s">
+      <c r="A55" s="44"/>
+      <c r="B55" s="44"/>
+      <c r="C55" s="44"/>
+      <c r="D55" s="44"/>
+      <c r="E55" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="F55" s="18"/>
-      <c r="G55" s="18"/>
-      <c r="H55" s="18"/>
-      <c r="I55" s="18"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
       <c r="J55" s="1">
         <v>4</v>
       </c>
@@ -2628,20 +2632,20 @@
       <c r="M55" s="3"/>
       <c r="N55" s="8"/>
       <c r="O55" s="8"/>
-      <c r="P55" s="31"/>
+      <c r="P55" s="37"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" s="13"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="18" t="s">
+      <c r="A56" s="44"/>
+      <c r="B56" s="44"/>
+      <c r="C56" s="44"/>
+      <c r="D56" s="44"/>
+      <c r="E56" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="18"/>
-      <c r="I56" s="18"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
       <c r="J56" s="1">
         <v>4</v>
       </c>
@@ -2650,20 +2654,20 @@
       <c r="M56" s="3"/>
       <c r="N56" s="8"/>
       <c r="O56" s="8"/>
-      <c r="P56" s="31"/>
+      <c r="P56" s="37"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" s="13"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="18" t="s">
+      <c r="A57" s="44"/>
+      <c r="B57" s="44"/>
+      <c r="C57" s="44"/>
+      <c r="D57" s="44"/>
+      <c r="E57" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="18"/>
-      <c r="I57" s="18"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="16"/>
+      <c r="I57" s="16"/>
       <c r="J57" s="1">
         <v>4</v>
       </c>
@@ -2672,24 +2676,24 @@
       <c r="M57" s="3"/>
       <c r="N57" s="8"/>
       <c r="O57" s="8"/>
-      <c r="P57" s="31"/>
+      <c r="P57" s="37"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" s="13"/>
-      <c r="B58" s="13"/>
-      <c r="C58" s="13" t="s">
+      <c r="A58" s="44"/>
+      <c r="B58" s="44"/>
+      <c r="C58" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="D58" s="13"/>
-      <c r="E58" s="18" t="s">
+      <c r="D58" s="44"/>
+      <c r="E58" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18" t="s">
+      <c r="F58" s="16"/>
+      <c r="G58" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="H58" s="18"/>
-      <c r="I58" s="18"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
       <c r="J58" s="1">
         <v>4</v>
       </c>
@@ -2698,20 +2702,20 @@
       <c r="M58" s="3"/>
       <c r="N58" s="8"/>
       <c r="O58" s="8"/>
-      <c r="P58" s="31"/>
+      <c r="P58" s="37"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" s="13"/>
-      <c r="B59" s="13"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="18" t="s">
+      <c r="A59" s="44"/>
+      <c r="B59" s="44"/>
+      <c r="C59" s="44"/>
+      <c r="D59" s="44"/>
+      <c r="E59" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="18"/>
-      <c r="I59" s="18"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="16"/>
       <c r="J59" s="1">
         <v>4</v>
       </c>
@@ -2720,22 +2724,22 @@
       <c r="M59" s="3"/>
       <c r="N59" s="8"/>
       <c r="O59" s="8"/>
-      <c r="P59" s="31"/>
+      <c r="P59" s="37"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A60" s="13"/>
-      <c r="B60" s="13"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="18" t="s">
+      <c r="A60" s="44"/>
+      <c r="B60" s="44"/>
+      <c r="C60" s="44"/>
+      <c r="D60" s="44"/>
+      <c r="E60" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="F60" s="18"/>
-      <c r="G60" s="23" t="s">
+      <c r="F60" s="16"/>
+      <c r="G60" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="H60" s="18"/>
-      <c r="I60" s="18"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="16"/>
       <c r="J60" s="1">
         <v>4</v>
       </c>
@@ -2744,20 +2748,20 @@
       <c r="M60" s="3"/>
       <c r="N60" s="8"/>
       <c r="O60" s="8"/>
-      <c r="P60" s="31"/>
+      <c r="P60" s="37"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A61" s="13"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="18" t="s">
+      <c r="A61" s="44"/>
+      <c r="B61" s="44"/>
+      <c r="C61" s="44"/>
+      <c r="D61" s="44"/>
+      <c r="E61" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F61" s="18"/>
-      <c r="G61" s="18"/>
-      <c r="H61" s="18"/>
-      <c r="I61" s="18"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="16"/>
+      <c r="I61" s="16"/>
       <c r="J61" s="1">
         <v>4</v>
       </c>
@@ -2766,22 +2770,22 @@
       <c r="M61" s="3"/>
       <c r="N61" s="8"/>
       <c r="O61" s="8"/>
-      <c r="P61" s="31"/>
+      <c r="P61" s="37"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A62" s="13"/>
-      <c r="B62" s="13"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="18" t="s">
+      <c r="A62" s="44"/>
+      <c r="B62" s="44"/>
+      <c r="C62" s="44"/>
+      <c r="D62" s="44"/>
+      <c r="E62" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="F62" s="18"/>
-      <c r="G62" s="23" t="s">
+      <c r="F62" s="16"/>
+      <c r="G62" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="H62" s="18"/>
-      <c r="I62" s="18"/>
+      <c r="H62" s="16"/>
+      <c r="I62" s="16"/>
       <c r="J62" s="1">
         <v>4</v>
       </c>
@@ -2790,18 +2794,18 @@
       <c r="M62" s="3"/>
       <c r="N62" s="8"/>
       <c r="O62" s="8"/>
-      <c r="P62" s="31"/>
+      <c r="P62" s="37"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A63" s="13"/>
-      <c r="B63" s="13"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="18"/>
-      <c r="F63" s="18"/>
-      <c r="G63" s="18"/>
-      <c r="H63" s="18"/>
-      <c r="I63" s="18"/>
+      <c r="A63" s="44"/>
+      <c r="B63" s="44"/>
+      <c r="C63" s="44"/>
+      <c r="D63" s="44"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="16"/>
+      <c r="I63" s="16"/>
       <c r="J63" s="1">
         <v>4</v>
       </c>
@@ -2810,26 +2814,26 @@
       <c r="M63" s="3"/>
       <c r="N63" s="8"/>
       <c r="O63" s="8"/>
-      <c r="P63" s="31"/>
+      <c r="P63" s="37"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A64" s="13" t="s">
+      <c r="A64" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="B64" s="13"/>
-      <c r="C64" s="13" t="s">
+      <c r="B64" s="44"/>
+      <c r="C64" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="D64" s="13"/>
-      <c r="E64" s="26" t="s">
+      <c r="D64" s="44"/>
+      <c r="E64" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="F64" s="26"/>
-      <c r="G64" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="H64" s="18"/>
-      <c r="I64" s="18"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="H64" s="16"/>
+      <c r="I64" s="16"/>
       <c r="J64" s="1">
         <v>2</v>
       </c>
@@ -2838,22 +2842,22 @@
       <c r="M64" s="3"/>
       <c r="N64" s="8"/>
       <c r="O64" s="8"/>
-      <c r="P64" s="30" t="s">
+      <c r="P64" s="36" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A65" s="13"/>
-      <c r="B65" s="13"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="26" t="s">
+      <c r="A65" s="44"/>
+      <c r="B65" s="44"/>
+      <c r="C65" s="44"/>
+      <c r="D65" s="44"/>
+      <c r="E65" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="F65" s="26"/>
-      <c r="G65" s="18"/>
-      <c r="H65" s="18"/>
-      <c r="I65" s="18"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="16"/>
+      <c r="H65" s="16"/>
+      <c r="I65" s="16"/>
       <c r="J65" s="1">
         <v>2</v>
       </c>
@@ -2862,20 +2866,20 @@
       <c r="M65" s="3"/>
       <c r="N65" s="8"/>
       <c r="O65" s="8"/>
-      <c r="P65" s="31"/>
+      <c r="P65" s="37"/>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A66" s="13"/>
-      <c r="B66" s="13"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="26" t="s">
+      <c r="A66" s="44"/>
+      <c r="B66" s="44"/>
+      <c r="C66" s="44"/>
+      <c r="D66" s="44"/>
+      <c r="E66" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="F66" s="26"/>
-      <c r="G66" s="18"/>
-      <c r="H66" s="18"/>
-      <c r="I66" s="18"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="16"/>
+      <c r="I66" s="16"/>
       <c r="J66" s="1">
         <v>8</v>
       </c>
@@ -2889,17 +2893,17 @@
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A67" s="13"/>
-      <c r="B67" s="13"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="27" t="s">
+      <c r="A67" s="44"/>
+      <c r="B67" s="44"/>
+      <c r="C67" s="44"/>
+      <c r="D67" s="44"/>
+      <c r="E67" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="F67" s="27"/>
-      <c r="G67" s="18"/>
-      <c r="H67" s="18"/>
-      <c r="I67" s="18"/>
+      <c r="F67" s="32"/>
+      <c r="G67" s="16"/>
+      <c r="H67" s="16"/>
+      <c r="I67" s="16"/>
       <c r="J67" s="1">
         <v>16</v>
       </c>
@@ -2908,22 +2912,22 @@
       <c r="M67" s="3"/>
       <c r="N67" s="8"/>
       <c r="O67" s="8"/>
-      <c r="P67" s="32" t="s">
+      <c r="P67" s="41" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A68" s="13"/>
-      <c r="B68" s="13"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="27" t="s">
+      <c r="A68" s="44"/>
+      <c r="B68" s="44"/>
+      <c r="C68" s="44"/>
+      <c r="D68" s="44"/>
+      <c r="E68" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="F68" s="27"/>
-      <c r="G68" s="18"/>
-      <c r="H68" s="18"/>
-      <c r="I68" s="18"/>
+      <c r="F68" s="32"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="16"/>
+      <c r="I68" s="16"/>
       <c r="J68" s="1">
         <v>10</v>
       </c>
@@ -2932,20 +2936,20 @@
       <c r="M68" s="3"/>
       <c r="N68" s="8"/>
       <c r="O68" s="8"/>
-      <c r="P68" s="32"/>
+      <c r="P68" s="41"/>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A69" s="13"/>
-      <c r="B69" s="13"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="22" t="s">
+      <c r="A69" s="44"/>
+      <c r="B69" s="44"/>
+      <c r="C69" s="44"/>
+      <c r="D69" s="44"/>
+      <c r="E69" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="F69" s="22"/>
-      <c r="G69" s="18"/>
-      <c r="H69" s="18"/>
-      <c r="I69" s="18"/>
+      <c r="F69" s="19"/>
+      <c r="G69" s="16"/>
+      <c r="H69" s="16"/>
+      <c r="I69" s="16"/>
       <c r="J69" s="1">
         <v>40</v>
       </c>
@@ -2959,21 +2963,21 @@
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A70" s="13"/>
-      <c r="B70" s="13"/>
-      <c r="C70" s="13" t="s">
+      <c r="A70" s="44"/>
+      <c r="B70" s="44"/>
+      <c r="C70" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="D70" s="13"/>
-      <c r="E70" s="26" t="s">
+      <c r="D70" s="44"/>
+      <c r="E70" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="F70" s="26"/>
-      <c r="G70" s="18" t="s">
+      <c r="F70" s="17"/>
+      <c r="G70" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="H70" s="18"/>
-      <c r="I70" s="18"/>
+      <c r="H70" s="16"/>
+      <c r="I70" s="16"/>
       <c r="J70" s="1">
         <v>2</v>
       </c>
@@ -2982,24 +2986,24 @@
       <c r="M70" s="3"/>
       <c r="N70" s="8"/>
       <c r="O70" s="8"/>
-      <c r="P70" s="32" t="s">
+      <c r="P70" s="41" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A71" s="13"/>
-      <c r="B71" s="13"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="26" t="s">
+      <c r="A71" s="44"/>
+      <c r="B71" s="44"/>
+      <c r="C71" s="44"/>
+      <c r="D71" s="44"/>
+      <c r="E71" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="F71" s="26"/>
-      <c r="G71" s="18" t="s">
+      <c r="F71" s="17"/>
+      <c r="G71" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="H71" s="18"/>
-      <c r="I71" s="18"/>
+      <c r="H71" s="16"/>
+      <c r="I71" s="16"/>
       <c r="J71" s="1">
         <v>2</v>
       </c>
@@ -3008,24 +3012,24 @@
       <c r="M71" s="3"/>
       <c r="N71" s="8"/>
       <c r="O71" s="8"/>
-      <c r="P71" s="33"/>
+      <c r="P71" s="42"/>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A72" s="13"/>
-      <c r="B72" s="13"/>
-      <c r="C72" s="13" t="s">
+      <c r="A72" s="44"/>
+      <c r="B72" s="44"/>
+      <c r="C72" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="D72" s="13"/>
-      <c r="E72" s="26" t="s">
+      <c r="D72" s="44"/>
+      <c r="E72" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="F72" s="26"/>
-      <c r="G72" s="18" t="s">
+      <c r="F72" s="17"/>
+      <c r="G72" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="H72" s="18"/>
-      <c r="I72" s="18"/>
+      <c r="H72" s="16"/>
+      <c r="I72" s="16"/>
       <c r="J72" s="1">
         <v>2</v>
       </c>
@@ -3034,22 +3038,22 @@
       <c r="M72" s="3"/>
       <c r="N72" s="8"/>
       <c r="O72" s="8"/>
-      <c r="P72" s="33"/>
+      <c r="P72" s="42"/>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A73" s="13"/>
-      <c r="B73" s="13"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="26" t="s">
+      <c r="A73" s="44"/>
+      <c r="B73" s="44"/>
+      <c r="C73" s="44"/>
+      <c r="D73" s="44"/>
+      <c r="E73" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="F73" s="26"/>
-      <c r="G73" s="18" t="s">
+      <c r="F73" s="17"/>
+      <c r="G73" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="H73" s="18"/>
-      <c r="I73" s="18"/>
+      <c r="H73" s="16"/>
+      <c r="I73" s="16"/>
       <c r="J73" s="1">
         <v>2</v>
       </c>
@@ -3058,24 +3062,24 @@
       <c r="M73" s="3"/>
       <c r="N73" s="8"/>
       <c r="O73" s="8"/>
-      <c r="P73" s="33"/>
+      <c r="P73" s="42"/>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A74" s="13"/>
-      <c r="B74" s="13"/>
-      <c r="C74" s="13" t="s">
+      <c r="A74" s="44"/>
+      <c r="B74" s="44"/>
+      <c r="C74" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="D74" s="13"/>
-      <c r="E74" s="26" t="s">
+      <c r="D74" s="44"/>
+      <c r="E74" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="F74" s="26"/>
-      <c r="G74" s="18" t="s">
+      <c r="F74" s="17"/>
+      <c r="G74" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="H74" s="18"/>
-      <c r="I74" s="18"/>
+      <c r="H74" s="16"/>
+      <c r="I74" s="16"/>
       <c r="J74" s="1">
         <v>2</v>
       </c>
@@ -3084,22 +3088,22 @@
       <c r="M74" s="3"/>
       <c r="N74" s="8"/>
       <c r="O74" s="8"/>
-      <c r="P74" s="33"/>
+      <c r="P74" s="42"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A75" s="13"/>
-      <c r="B75" s="13"/>
-      <c r="C75" s="13"/>
-      <c r="D75" s="13"/>
-      <c r="E75" s="26" t="s">
+      <c r="A75" s="44"/>
+      <c r="B75" s="44"/>
+      <c r="C75" s="44"/>
+      <c r="D75" s="44"/>
+      <c r="E75" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="F75" s="26"/>
-      <c r="G75" s="18" t="s">
+      <c r="F75" s="17"/>
+      <c r="G75" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="H75" s="18"/>
-      <c r="I75" s="18"/>
+      <c r="H75" s="16"/>
+      <c r="I75" s="16"/>
       <c r="J75" s="1">
         <v>2</v>
       </c>
@@ -3108,26 +3112,26 @@
       <c r="M75" s="3"/>
       <c r="N75" s="8"/>
       <c r="O75" s="8"/>
-      <c r="P75" s="33"/>
+      <c r="P75" s="42"/>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A76" s="13" t="s">
+      <c r="A76" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="B76" s="13"/>
-      <c r="C76" s="13" t="s">
+      <c r="B76" s="44"/>
+      <c r="C76" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="D76" s="13"/>
-      <c r="E76" s="26" t="s">
+      <c r="D76" s="44"/>
+      <c r="E76" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="F76" s="26"/>
-      <c r="G76" s="18" t="s">
+      <c r="F76" s="17"/>
+      <c r="G76" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="H76" s="18"/>
-      <c r="I76" s="18"/>
+      <c r="H76" s="16"/>
+      <c r="I76" s="16"/>
       <c r="J76" s="1">
         <v>2</v>
       </c>
@@ -3136,22 +3140,22 @@
       <c r="M76" s="3"/>
       <c r="N76" s="8"/>
       <c r="O76" s="8"/>
-      <c r="P76" s="33"/>
+      <c r="P76" s="42"/>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A77" s="13"/>
-      <c r="B77" s="13"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="26" t="s">
+      <c r="A77" s="44"/>
+      <c r="B77" s="44"/>
+      <c r="C77" s="44"/>
+      <c r="D77" s="44"/>
+      <c r="E77" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="F77" s="26"/>
-      <c r="G77" s="18" t="s">
+      <c r="F77" s="17"/>
+      <c r="G77" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="H77" s="18"/>
-      <c r="I77" s="18"/>
+      <c r="H77" s="16"/>
+      <c r="I77" s="16"/>
       <c r="J77" s="1">
         <v>2</v>
       </c>
@@ -3160,23 +3164,23 @@
       <c r="M77" s="3"/>
       <c r="N77" s="8"/>
       <c r="O77" s="8"/>
-      <c r="P77" s="33"/>
+      <c r="P77" s="42"/>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A78" s="13"/>
-      <c r="B78" s="13"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="13"/>
-      <c r="E78" s="26" t="s">
+      <c r="A78" s="44"/>
+      <c r="B78" s="44"/>
+      <c r="C78" s="44"/>
+      <c r="D78" s="44"/>
+      <c r="E78" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="F78" s="26"/>
-      <c r="G78" s="23" t="s">
+      <c r="F78" s="17"/>
+      <c r="G78" s="45" t="s">
         <v>133</v>
       </c>
-      <c r="H78" s="18"/>
-      <c r="I78" s="18"/>
-      <c r="J78" s="39">
+      <c r="H78" s="16"/>
+      <c r="I78" s="16"/>
+      <c r="J78" s="34">
         <v>16</v>
       </c>
       <c r="K78" s="8"/>
@@ -3184,43 +3188,43 @@
       <c r="M78" s="3"/>
       <c r="N78" s="8"/>
       <c r="O78" s="8"/>
-      <c r="P78" s="32" t="s">
+      <c r="P78" s="41" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A79" s="13"/>
-      <c r="B79" s="13"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="13"/>
-      <c r="E79" s="26"/>
-      <c r="F79" s="26"/>
-      <c r="G79" s="18"/>
-      <c r="H79" s="18"/>
-      <c r="I79" s="18"/>
-      <c r="J79" s="39"/>
+      <c r="A79" s="44"/>
+      <c r="B79" s="44"/>
+      <c r="C79" s="44"/>
+      <c r="D79" s="44"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="17"/>
+      <c r="G79" s="16"/>
+      <c r="H79" s="16"/>
+      <c r="I79" s="16"/>
+      <c r="J79" s="34"/>
       <c r="K79" s="8"/>
       <c r="L79" s="8"/>
       <c r="M79" s="3"/>
       <c r="N79" s="8"/>
       <c r="O79" s="8"/>
-      <c r="P79" s="32"/>
+      <c r="P79" s="41"/>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A80" s="13"/>
-      <c r="B80" s="13"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="13"/>
-      <c r="E80" s="27" t="s">
+      <c r="A80" s="44"/>
+      <c r="B80" s="44"/>
+      <c r="C80" s="44"/>
+      <c r="D80" s="44"/>
+      <c r="E80" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="F80" s="27"/>
-      <c r="G80" s="28" t="s">
+      <c r="F80" s="32"/>
+      <c r="G80" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="H80" s="18"/>
-      <c r="I80" s="18"/>
-      <c r="J80" s="39">
+      <c r="H80" s="16"/>
+      <c r="I80" s="16"/>
+      <c r="J80" s="34">
         <v>16</v>
       </c>
       <c r="K80" s="8"/>
@@ -3228,42 +3232,42 @@
       <c r="M80" s="3"/>
       <c r="N80" s="8"/>
       <c r="O80" s="8"/>
-      <c r="P80" s="32"/>
+      <c r="P80" s="41"/>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A81" s="13"/>
-      <c r="B81" s="13"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="13"/>
-      <c r="E81" s="27"/>
-      <c r="F81" s="27"/>
-      <c r="G81" s="18"/>
-      <c r="H81" s="18"/>
-      <c r="I81" s="18"/>
-      <c r="J81" s="39"/>
+      <c r="A81" s="44"/>
+      <c r="B81" s="44"/>
+      <c r="C81" s="44"/>
+      <c r="D81" s="44"/>
+      <c r="E81" s="32"/>
+      <c r="F81" s="32"/>
+      <c r="G81" s="16"/>
+      <c r="H81" s="16"/>
+      <c r="I81" s="16"/>
+      <c r="J81" s="34"/>
       <c r="K81" s="8"/>
       <c r="L81" s="8"/>
       <c r="M81" s="3"/>
       <c r="N81" s="8"/>
       <c r="O81" s="8"/>
-      <c r="P81" s="32"/>
+      <c r="P81" s="41"/>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A82" s="13"/>
-      <c r="B82" s="13"/>
-      <c r="C82" s="13" t="s">
+      <c r="A82" s="44"/>
+      <c r="B82" s="44"/>
+      <c r="C82" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="D82" s="13"/>
-      <c r="E82" s="27" t="s">
+      <c r="D82" s="44"/>
+      <c r="E82" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="F82" s="27"/>
-      <c r="G82" s="18" t="s">
+      <c r="F82" s="32"/>
+      <c r="G82" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="H82" s="18"/>
-      <c r="I82" s="18"/>
+      <c r="H82" s="16"/>
+      <c r="I82" s="16"/>
       <c r="J82" s="1">
         <v>4</v>
       </c>
@@ -3277,19 +3281,19 @@
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A83" s="13"/>
-      <c r="B83" s="13"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="13"/>
-      <c r="E83" s="22" t="s">
+      <c r="A83" s="44"/>
+      <c r="B83" s="44"/>
+      <c r="C83" s="44"/>
+      <c r="D83" s="44"/>
+      <c r="E83" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="F83" s="22"/>
-      <c r="G83" s="18" t="s">
+      <c r="F83" s="19"/>
+      <c r="G83" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="H83" s="18"/>
-      <c r="I83" s="18"/>
+      <c r="H83" s="16"/>
+      <c r="I83" s="16"/>
       <c r="J83" s="1">
         <v>32</v>
       </c>
@@ -3303,19 +3307,19 @@
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A84" s="13"/>
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
-      <c r="E84" s="26" t="s">
+      <c r="A84" s="44"/>
+      <c r="B84" s="44"/>
+      <c r="C84" s="44"/>
+      <c r="D84" s="44"/>
+      <c r="E84" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="F84" s="26"/>
-      <c r="G84" s="18" t="s">
+      <c r="F84" s="17"/>
+      <c r="G84" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="H84" s="18"/>
-      <c r="I84" s="18"/>
+      <c r="H84" s="16"/>
+      <c r="I84" s="16"/>
       <c r="J84" s="1">
         <v>4</v>
       </c>
@@ -3324,24 +3328,24 @@
       <c r="M84" s="3"/>
       <c r="N84" s="8"/>
       <c r="O84" s="8"/>
-      <c r="P84" s="30" t="s">
+      <c r="P84" s="36" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A85" s="13"/>
-      <c r="B85" s="13"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="13"/>
-      <c r="E85" s="26" t="s">
+      <c r="A85" s="44"/>
+      <c r="B85" s="44"/>
+      <c r="C85" s="44"/>
+      <c r="D85" s="44"/>
+      <c r="E85" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="F85" s="26"/>
-      <c r="G85" s="18" t="s">
+      <c r="F85" s="17"/>
+      <c r="G85" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="H85" s="18"/>
-      <c r="I85" s="18"/>
+      <c r="H85" s="16"/>
+      <c r="I85" s="16"/>
       <c r="J85" s="1">
         <v>4</v>
       </c>
@@ -3350,22 +3354,22 @@
       <c r="M85" s="3"/>
       <c r="N85" s="8"/>
       <c r="O85" s="8"/>
-      <c r="P85" s="31"/>
+      <c r="P85" s="37"/>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A86" s="13"/>
-      <c r="B86" s="13"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="13"/>
-      <c r="E86" s="26" t="s">
+      <c r="A86" s="44"/>
+      <c r="B86" s="44"/>
+      <c r="C86" s="44"/>
+      <c r="D86" s="44"/>
+      <c r="E86" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="F86" s="26"/>
-      <c r="G86" s="18" t="s">
+      <c r="F86" s="17"/>
+      <c r="G86" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="H86" s="18"/>
-      <c r="I86" s="18"/>
+      <c r="H86" s="16"/>
+      <c r="I86" s="16"/>
       <c r="J86" s="1">
         <v>4</v>
       </c>
@@ -3374,22 +3378,22 @@
       <c r="M86" s="3"/>
       <c r="N86" s="8"/>
       <c r="O86" s="8"/>
-      <c r="P86" s="31"/>
+      <c r="P86" s="37"/>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A87" s="13"/>
-      <c r="B87" s="13"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="13"/>
-      <c r="E87" s="26" t="s">
+      <c r="A87" s="44"/>
+      <c r="B87" s="44"/>
+      <c r="C87" s="44"/>
+      <c r="D87" s="44"/>
+      <c r="E87" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="F87" s="26"/>
-      <c r="G87" s="18" t="s">
+      <c r="F87" s="17"/>
+      <c r="G87" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="H87" s="18"/>
-      <c r="I87" s="18"/>
+      <c r="H87" s="16"/>
+      <c r="I87" s="16"/>
       <c r="J87" s="1">
         <v>4</v>
       </c>
@@ -3398,22 +3402,22 @@
       <c r="M87" s="3"/>
       <c r="N87" s="8"/>
       <c r="O87" s="8"/>
-      <c r="P87" s="31"/>
+      <c r="P87" s="37"/>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A88" s="13"/>
-      <c r="B88" s="13"/>
-      <c r="C88" s="13"/>
-      <c r="D88" s="13"/>
-      <c r="E88" s="26" t="s">
+      <c r="A88" s="44"/>
+      <c r="B88" s="44"/>
+      <c r="C88" s="44"/>
+      <c r="D88" s="44"/>
+      <c r="E88" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="F88" s="26"/>
-      <c r="G88" s="18" t="s">
+      <c r="F88" s="17"/>
+      <c r="G88" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="H88" s="18"/>
-      <c r="I88" s="18"/>
+      <c r="H88" s="16"/>
+      <c r="I88" s="16"/>
       <c r="J88" s="1">
         <v>4</v>
       </c>
@@ -3422,24 +3426,24 @@
       <c r="M88" s="3"/>
       <c r="N88" s="8"/>
       <c r="O88" s="8"/>
-      <c r="P88" s="31"/>
+      <c r="P88" s="37"/>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A89" s="13"/>
-      <c r="B89" s="13"/>
-      <c r="C89" s="13" t="s">
+      <c r="A89" s="44"/>
+      <c r="B89" s="44"/>
+      <c r="C89" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="D89" s="13"/>
-      <c r="E89" s="18" t="s">
+      <c r="D89" s="44"/>
+      <c r="E89" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="F89" s="18"/>
-      <c r="G89" s="23" t="s">
+      <c r="F89" s="16"/>
+      <c r="G89" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="H89" s="18"/>
-      <c r="I89" s="18"/>
+      <c r="H89" s="16"/>
+      <c r="I89" s="16"/>
       <c r="J89" s="1">
         <v>8</v>
       </c>
@@ -3448,20 +3452,20 @@
       <c r="M89" s="3"/>
       <c r="N89" s="8"/>
       <c r="O89" s="8"/>
-      <c r="P89" s="32" t="s">
+      <c r="P89" s="41" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A90" s="13"/>
-      <c r="B90" s="13"/>
-      <c r="C90" s="13"/>
-      <c r="D90" s="13"/>
-      <c r="E90" s="18"/>
-      <c r="F90" s="18"/>
-      <c r="G90" s="18"/>
-      <c r="H90" s="18"/>
-      <c r="I90" s="18"/>
+      <c r="A90" s="44"/>
+      <c r="B90" s="44"/>
+      <c r="C90" s="44"/>
+      <c r="D90" s="44"/>
+      <c r="E90" s="16"/>
+      <c r="F90" s="16"/>
+      <c r="G90" s="16"/>
+      <c r="H90" s="16"/>
+      <c r="I90" s="16"/>
       <c r="J90" s="1">
         <v>8</v>
       </c>
@@ -3470,22 +3474,22 @@
       <c r="M90" s="3"/>
       <c r="N90" s="8"/>
       <c r="O90" s="8"/>
-      <c r="P90" s="33"/>
+      <c r="P90" s="42"/>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A91" s="13"/>
-      <c r="B91" s="13"/>
-      <c r="C91" s="13"/>
-      <c r="D91" s="13"/>
-      <c r="E91" s="18" t="s">
+      <c r="A91" s="44"/>
+      <c r="B91" s="44"/>
+      <c r="C91" s="44"/>
+      <c r="D91" s="44"/>
+      <c r="E91" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="F91" s="18"/>
-      <c r="G91" s="18" t="s">
+      <c r="F91" s="16"/>
+      <c r="G91" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="H91" s="18"/>
-      <c r="I91" s="18"/>
+      <c r="H91" s="16"/>
+      <c r="I91" s="16"/>
       <c r="J91" s="1">
         <v>8</v>
       </c>
@@ -3494,20 +3498,20 @@
       <c r="M91" s="3"/>
       <c r="N91" s="8"/>
       <c r="O91" s="8"/>
-      <c r="P91" s="33"/>
+      <c r="P91" s="42"/>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A92" s="13"/>
-      <c r="B92" s="13"/>
-      <c r="C92" s="13"/>
-      <c r="D92" s="13"/>
-      <c r="E92" s="18" t="s">
+      <c r="A92" s="44"/>
+      <c r="B92" s="44"/>
+      <c r="C92" s="44"/>
+      <c r="D92" s="44"/>
+      <c r="E92" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="F92" s="18"/>
-      <c r="G92" s="18"/>
-      <c r="H92" s="18"/>
-      <c r="I92" s="18"/>
+      <c r="F92" s="16"/>
+      <c r="G92" s="16"/>
+      <c r="H92" s="16"/>
+      <c r="I92" s="16"/>
       <c r="J92" s="1">
         <v>8</v>
       </c>
@@ -3516,20 +3520,20 @@
       <c r="M92" s="3"/>
       <c r="N92" s="8"/>
       <c r="O92" s="8"/>
-      <c r="P92" s="33"/>
+      <c r="P92" s="42"/>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A93" s="13"/>
-      <c r="B93" s="13"/>
-      <c r="C93" s="13"/>
-      <c r="D93" s="13"/>
-      <c r="E93" s="18" t="s">
+      <c r="A93" s="44"/>
+      <c r="B93" s="44"/>
+      <c r="C93" s="44"/>
+      <c r="D93" s="44"/>
+      <c r="E93" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="F93" s="18"/>
-      <c r="G93" s="18"/>
-      <c r="H93" s="18"/>
-      <c r="I93" s="18"/>
+      <c r="F93" s="16"/>
+      <c r="G93" s="16"/>
+      <c r="H93" s="16"/>
+      <c r="I93" s="16"/>
       <c r="J93" s="1">
         <v>8</v>
       </c>
@@ -3538,20 +3542,20 @@
       <c r="M93" s="3"/>
       <c r="N93" s="8"/>
       <c r="O93" s="8"/>
-      <c r="P93" s="33"/>
+      <c r="P93" s="42"/>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A94" s="13"/>
-      <c r="B94" s="13"/>
-      <c r="C94" s="13"/>
-      <c r="D94" s="13"/>
-      <c r="E94" s="18" t="s">
+      <c r="A94" s="44"/>
+      <c r="B94" s="44"/>
+      <c r="C94" s="44"/>
+      <c r="D94" s="44"/>
+      <c r="E94" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="F94" s="18"/>
-      <c r="G94" s="18"/>
-      <c r="H94" s="18"/>
-      <c r="I94" s="18"/>
+      <c r="F94" s="16"/>
+      <c r="G94" s="16"/>
+      <c r="H94" s="16"/>
+      <c r="I94" s="16"/>
       <c r="J94" s="1">
         <v>8</v>
       </c>
@@ -3560,20 +3564,20 @@
       <c r="M94" s="3"/>
       <c r="N94" s="8"/>
       <c r="O94" s="8"/>
-      <c r="P94" s="33"/>
+      <c r="P94" s="42"/>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A95" s="13"/>
-      <c r="B95" s="13"/>
-      <c r="C95" s="13"/>
-      <c r="D95" s="13"/>
-      <c r="E95" s="18" t="s">
+      <c r="A95" s="44"/>
+      <c r="B95" s="44"/>
+      <c r="C95" s="44"/>
+      <c r="D95" s="44"/>
+      <c r="E95" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="F95" s="18"/>
-      <c r="G95" s="18"/>
-      <c r="H95" s="18"/>
-      <c r="I95" s="18"/>
+      <c r="F95" s="16"/>
+      <c r="G95" s="16"/>
+      <c r="H95" s="16"/>
+      <c r="I95" s="16"/>
       <c r="J95" s="1">
         <v>8</v>
       </c>
@@ -3582,7 +3586,7 @@
       <c r="M95" s="3"/>
       <c r="N95" s="8"/>
       <c r="O95" s="8"/>
-      <c r="P95" s="33"/>
+      <c r="P95" s="42"/>
     </row>
     <row r="96" spans="1:16" ht="28.8" x14ac:dyDescent="0.25">
       <c r="J96" s="1">
@@ -3594,538 +3598,548 @@
       </c>
     </row>
     <row r="98" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="34" t="s">
+      <c r="A98" s="43" t="s">
         <v>163</v>
       </c>
-      <c r="B98" s="34"/>
-      <c r="C98" s="34"/>
-      <c r="D98" s="34"/>
-      <c r="E98" s="34"/>
-      <c r="F98" s="34"/>
-      <c r="G98" s="34"/>
-      <c r="H98" s="34"/>
-      <c r="I98" s="34"/>
-      <c r="J98" s="34"/>
-      <c r="K98" s="34"/>
-      <c r="L98" s="34"/>
-      <c r="M98" s="34"/>
-      <c r="N98" s="34"/>
-      <c r="O98" s="34"/>
-      <c r="P98" s="34"/>
+      <c r="B98" s="43"/>
+      <c r="C98" s="43"/>
+      <c r="D98" s="43"/>
+      <c r="E98" s="43"/>
+      <c r="F98" s="43"/>
+      <c r="G98" s="43"/>
+      <c r="H98" s="43"/>
+      <c r="I98" s="43"/>
+      <c r="J98" s="43"/>
+      <c r="K98" s="43"/>
+      <c r="L98" s="43"/>
+      <c r="M98" s="43"/>
+      <c r="N98" s="43"/>
+      <c r="O98" s="43"/>
+      <c r="P98" s="43"/>
       <c r="Q98" s="11" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A99" s="34"/>
-      <c r="B99" s="34"/>
-      <c r="C99" s="34"/>
-      <c r="D99" s="34"/>
-      <c r="E99" s="34"/>
-      <c r="F99" s="34"/>
-      <c r="G99" s="34"/>
-      <c r="H99" s="34"/>
-      <c r="I99" s="34"/>
-      <c r="J99" s="34"/>
-      <c r="K99" s="34"/>
-      <c r="L99" s="34"/>
-      <c r="M99" s="34"/>
-      <c r="N99" s="34"/>
-      <c r="O99" s="34"/>
-      <c r="P99" s="34"/>
+      <c r="A99" s="43"/>
+      <c r="B99" s="43"/>
+      <c r="C99" s="43"/>
+      <c r="D99" s="43"/>
+      <c r="E99" s="43"/>
+      <c r="F99" s="43"/>
+      <c r="G99" s="43"/>
+      <c r="H99" s="43"/>
+      <c r="I99" s="43"/>
+      <c r="J99" s="43"/>
+      <c r="K99" s="43"/>
+      <c r="L99" s="43"/>
+      <c r="M99" s="43"/>
+      <c r="N99" s="43"/>
+      <c r="O99" s="43"/>
+      <c r="P99" s="43"/>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A100" s="34"/>
-      <c r="B100" s="34"/>
-      <c r="C100" s="34"/>
-      <c r="D100" s="34"/>
-      <c r="E100" s="34"/>
-      <c r="F100" s="34"/>
-      <c r="G100" s="34"/>
-      <c r="H100" s="34"/>
-      <c r="I100" s="34"/>
-      <c r="J100" s="34"/>
-      <c r="K100" s="34"/>
-      <c r="L100" s="34"/>
-      <c r="M100" s="34"/>
-      <c r="N100" s="34"/>
-      <c r="O100" s="34"/>
-      <c r="P100" s="34"/>
+      <c r="A100" s="43"/>
+      <c r="B100" s="43"/>
+      <c r="C100" s="43"/>
+      <c r="D100" s="43"/>
+      <c r="E100" s="43"/>
+      <c r="F100" s="43"/>
+      <c r="G100" s="43"/>
+      <c r="H100" s="43"/>
+      <c r="I100" s="43"/>
+      <c r="J100" s="43"/>
+      <c r="K100" s="43"/>
+      <c r="L100" s="43"/>
+      <c r="M100" s="43"/>
+      <c r="N100" s="43"/>
+      <c r="O100" s="43"/>
+      <c r="P100" s="43"/>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A101" s="34"/>
-      <c r="B101" s="34"/>
-      <c r="C101" s="34"/>
-      <c r="D101" s="34"/>
-      <c r="E101" s="34"/>
-      <c r="F101" s="34"/>
-      <c r="G101" s="34"/>
-      <c r="H101" s="34"/>
-      <c r="I101" s="34"/>
-      <c r="J101" s="34"/>
-      <c r="K101" s="34"/>
-      <c r="L101" s="34"/>
-      <c r="M101" s="34"/>
-      <c r="N101" s="34"/>
-      <c r="O101" s="34"/>
-      <c r="P101" s="34"/>
+      <c r="A101" s="43"/>
+      <c r="B101" s="43"/>
+      <c r="C101" s="43"/>
+      <c r="D101" s="43"/>
+      <c r="E101" s="43"/>
+      <c r="F101" s="43"/>
+      <c r="G101" s="43"/>
+      <c r="H101" s="43"/>
+      <c r="I101" s="43"/>
+      <c r="J101" s="43"/>
+      <c r="K101" s="43"/>
+      <c r="L101" s="43"/>
+      <c r="M101" s="43"/>
+      <c r="N101" s="43"/>
+      <c r="O101" s="43"/>
+      <c r="P101" s="43"/>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A102" s="34"/>
-      <c r="B102" s="34"/>
-      <c r="C102" s="34"/>
-      <c r="D102" s="34"/>
-      <c r="E102" s="34"/>
-      <c r="F102" s="34"/>
-      <c r="G102" s="34"/>
-      <c r="H102" s="34"/>
-      <c r="I102" s="34"/>
-      <c r="J102" s="34"/>
-      <c r="K102" s="34"/>
-      <c r="L102" s="34"/>
-      <c r="M102" s="34"/>
-      <c r="N102" s="34"/>
-      <c r="O102" s="34"/>
-      <c r="P102" s="34"/>
+      <c r="A102" s="43"/>
+      <c r="B102" s="43"/>
+      <c r="C102" s="43"/>
+      <c r="D102" s="43"/>
+      <c r="E102" s="43"/>
+      <c r="F102" s="43"/>
+      <c r="G102" s="43"/>
+      <c r="H102" s="43"/>
+      <c r="I102" s="43"/>
+      <c r="J102" s="43"/>
+      <c r="K102" s="43"/>
+      <c r="L102" s="43"/>
+      <c r="M102" s="43"/>
+      <c r="N102" s="43"/>
+      <c r="O102" s="43"/>
+      <c r="P102" s="43"/>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A103" s="34"/>
-      <c r="B103" s="34"/>
-      <c r="C103" s="34"/>
-      <c r="D103" s="34"/>
-      <c r="E103" s="34"/>
-      <c r="F103" s="34"/>
-      <c r="G103" s="34"/>
-      <c r="H103" s="34"/>
-      <c r="I103" s="34"/>
-      <c r="J103" s="34"/>
-      <c r="K103" s="34"/>
-      <c r="L103" s="34"/>
-      <c r="M103" s="34"/>
-      <c r="N103" s="34"/>
-      <c r="O103" s="34"/>
-      <c r="P103" s="34"/>
+      <c r="A103" s="43"/>
+      <c r="B103" s="43"/>
+      <c r="C103" s="43"/>
+      <c r="D103" s="43"/>
+      <c r="E103" s="43"/>
+      <c r="F103" s="43"/>
+      <c r="G103" s="43"/>
+      <c r="H103" s="43"/>
+      <c r="I103" s="43"/>
+      <c r="J103" s="43"/>
+      <c r="K103" s="43"/>
+      <c r="L103" s="43"/>
+      <c r="M103" s="43"/>
+      <c r="N103" s="43"/>
+      <c r="O103" s="43"/>
+      <c r="P103" s="43"/>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A104" s="34"/>
-      <c r="B104" s="34"/>
-      <c r="C104" s="34"/>
-      <c r="D104" s="34"/>
-      <c r="E104" s="34"/>
-      <c r="F104" s="34"/>
-      <c r="G104" s="34"/>
-      <c r="H104" s="34"/>
-      <c r="I104" s="34"/>
-      <c r="J104" s="34"/>
-      <c r="K104" s="34"/>
-      <c r="L104" s="34"/>
-      <c r="M104" s="34"/>
-      <c r="N104" s="34"/>
-      <c r="O104" s="34"/>
-      <c r="P104" s="34"/>
+      <c r="A104" s="43"/>
+      <c r="B104" s="43"/>
+      <c r="C104" s="43"/>
+      <c r="D104" s="43"/>
+      <c r="E104" s="43"/>
+      <c r="F104" s="43"/>
+      <c r="G104" s="43"/>
+      <c r="H104" s="43"/>
+      <c r="I104" s="43"/>
+      <c r="J104" s="43"/>
+      <c r="K104" s="43"/>
+      <c r="L104" s="43"/>
+      <c r="M104" s="43"/>
+      <c r="N104" s="43"/>
+      <c r="O104" s="43"/>
+      <c r="P104" s="43"/>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A105" s="34"/>
-      <c r="B105" s="34"/>
-      <c r="C105" s="34"/>
-      <c r="D105" s="34"/>
-      <c r="E105" s="34"/>
-      <c r="F105" s="34"/>
-      <c r="G105" s="34"/>
-      <c r="H105" s="34"/>
-      <c r="I105" s="34"/>
-      <c r="J105" s="34"/>
-      <c r="K105" s="34"/>
-      <c r="L105" s="34"/>
-      <c r="M105" s="34"/>
-      <c r="N105" s="34"/>
-      <c r="O105" s="34"/>
-      <c r="P105" s="34"/>
+      <c r="A105" s="43"/>
+      <c r="B105" s="43"/>
+      <c r="C105" s="43"/>
+      <c r="D105" s="43"/>
+      <c r="E105" s="43"/>
+      <c r="F105" s="43"/>
+      <c r="G105" s="43"/>
+      <c r="H105" s="43"/>
+      <c r="I105" s="43"/>
+      <c r="J105" s="43"/>
+      <c r="K105" s="43"/>
+      <c r="L105" s="43"/>
+      <c r="M105" s="43"/>
+      <c r="N105" s="43"/>
+      <c r="O105" s="43"/>
+      <c r="P105" s="43"/>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A106" s="34"/>
-      <c r="B106" s="34"/>
-      <c r="C106" s="34"/>
-      <c r="D106" s="34"/>
-      <c r="E106" s="34"/>
-      <c r="F106" s="34"/>
-      <c r="G106" s="34"/>
-      <c r="H106" s="34"/>
-      <c r="I106" s="34"/>
-      <c r="J106" s="34"/>
-      <c r="K106" s="34"/>
-      <c r="L106" s="34"/>
-      <c r="M106" s="34"/>
-      <c r="N106" s="34"/>
-      <c r="O106" s="34"/>
-      <c r="P106" s="34"/>
+      <c r="A106" s="43"/>
+      <c r="B106" s="43"/>
+      <c r="C106" s="43"/>
+      <c r="D106" s="43"/>
+      <c r="E106" s="43"/>
+      <c r="F106" s="43"/>
+      <c r="G106" s="43"/>
+      <c r="H106" s="43"/>
+      <c r="I106" s="43"/>
+      <c r="J106" s="43"/>
+      <c r="K106" s="43"/>
+      <c r="L106" s="43"/>
+      <c r="M106" s="43"/>
+      <c r="N106" s="43"/>
+      <c r="O106" s="43"/>
+      <c r="P106" s="43"/>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A107" s="34"/>
-      <c r="B107" s="34"/>
-      <c r="C107" s="34"/>
-      <c r="D107" s="34"/>
-      <c r="E107" s="34"/>
-      <c r="F107" s="34"/>
-      <c r="G107" s="34"/>
-      <c r="H107" s="34"/>
-      <c r="I107" s="34"/>
-      <c r="J107" s="34"/>
-      <c r="K107" s="34"/>
-      <c r="L107" s="34"/>
-      <c r="M107" s="34"/>
-      <c r="N107" s="34"/>
-      <c r="O107" s="34"/>
-      <c r="P107" s="34"/>
+      <c r="A107" s="43"/>
+      <c r="B107" s="43"/>
+      <c r="C107" s="43"/>
+      <c r="D107" s="43"/>
+      <c r="E107" s="43"/>
+      <c r="F107" s="43"/>
+      <c r="G107" s="43"/>
+      <c r="H107" s="43"/>
+      <c r="I107" s="43"/>
+      <c r="J107" s="43"/>
+      <c r="K107" s="43"/>
+      <c r="L107" s="43"/>
+      <c r="M107" s="43"/>
+      <c r="N107" s="43"/>
+      <c r="O107" s="43"/>
+      <c r="P107" s="43"/>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A108" s="34"/>
-      <c r="B108" s="34"/>
-      <c r="C108" s="34"/>
-      <c r="D108" s="34"/>
-      <c r="E108" s="34"/>
-      <c r="F108" s="34"/>
-      <c r="G108" s="34"/>
-      <c r="H108" s="34"/>
-      <c r="I108" s="34"/>
-      <c r="J108" s="34"/>
-      <c r="K108" s="34"/>
-      <c r="L108" s="34"/>
-      <c r="M108" s="34"/>
-      <c r="N108" s="34"/>
-      <c r="O108" s="34"/>
-      <c r="P108" s="34"/>
+      <c r="A108" s="43"/>
+      <c r="B108" s="43"/>
+      <c r="C108" s="43"/>
+      <c r="D108" s="43"/>
+      <c r="E108" s="43"/>
+      <c r="F108" s="43"/>
+      <c r="G108" s="43"/>
+      <c r="H108" s="43"/>
+      <c r="I108" s="43"/>
+      <c r="J108" s="43"/>
+      <c r="K108" s="43"/>
+      <c r="L108" s="43"/>
+      <c r="M108" s="43"/>
+      <c r="N108" s="43"/>
+      <c r="O108" s="43"/>
+      <c r="P108" s="43"/>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A109" s="34"/>
-      <c r="B109" s="34"/>
-      <c r="C109" s="34"/>
-      <c r="D109" s="34"/>
-      <c r="E109" s="34"/>
-      <c r="F109" s="34"/>
-      <c r="G109" s="34"/>
-      <c r="H109" s="34"/>
-      <c r="I109" s="34"/>
-      <c r="J109" s="34"/>
-      <c r="K109" s="34"/>
-      <c r="L109" s="34"/>
-      <c r="M109" s="34"/>
-      <c r="N109" s="34"/>
-      <c r="O109" s="34"/>
-      <c r="P109" s="34"/>
+      <c r="A109" s="43"/>
+      <c r="B109" s="43"/>
+      <c r="C109" s="43"/>
+      <c r="D109" s="43"/>
+      <c r="E109" s="43"/>
+      <c r="F109" s="43"/>
+      <c r="G109" s="43"/>
+      <c r="H109" s="43"/>
+      <c r="I109" s="43"/>
+      <c r="J109" s="43"/>
+      <c r="K109" s="43"/>
+      <c r="L109" s="43"/>
+      <c r="M109" s="43"/>
+      <c r="N109" s="43"/>
+      <c r="O109" s="43"/>
+      <c r="P109" s="43"/>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A110" s="34"/>
-      <c r="B110" s="34"/>
-      <c r="C110" s="34"/>
-      <c r="D110" s="34"/>
-      <c r="E110" s="34"/>
-      <c r="F110" s="34"/>
-      <c r="G110" s="34"/>
-      <c r="H110" s="34"/>
-      <c r="I110" s="34"/>
-      <c r="J110" s="34"/>
-      <c r="K110" s="34"/>
-      <c r="L110" s="34"/>
-      <c r="M110" s="34"/>
-      <c r="N110" s="34"/>
-      <c r="O110" s="34"/>
-      <c r="P110" s="34"/>
+      <c r="A110" s="43"/>
+      <c r="B110" s="43"/>
+      <c r="C110" s="43"/>
+      <c r="D110" s="43"/>
+      <c r="E110" s="43"/>
+      <c r="F110" s="43"/>
+      <c r="G110" s="43"/>
+      <c r="H110" s="43"/>
+      <c r="I110" s="43"/>
+      <c r="J110" s="43"/>
+      <c r="K110" s="43"/>
+      <c r="L110" s="43"/>
+      <c r="M110" s="43"/>
+      <c r="N110" s="43"/>
+      <c r="O110" s="43"/>
+      <c r="P110" s="43"/>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A111" s="34"/>
-      <c r="B111" s="34"/>
-      <c r="C111" s="34"/>
-      <c r="D111" s="34"/>
-      <c r="E111" s="34"/>
-      <c r="F111" s="34"/>
-      <c r="G111" s="34"/>
-      <c r="H111" s="34"/>
-      <c r="I111" s="34"/>
-      <c r="J111" s="34"/>
-      <c r="K111" s="34"/>
-      <c r="L111" s="34"/>
-      <c r="M111" s="34"/>
-      <c r="N111" s="34"/>
-      <c r="O111" s="34"/>
-      <c r="P111" s="34"/>
+      <c r="A111" s="43"/>
+      <c r="B111" s="43"/>
+      <c r="C111" s="43"/>
+      <c r="D111" s="43"/>
+      <c r="E111" s="43"/>
+      <c r="F111" s="43"/>
+      <c r="G111" s="43"/>
+      <c r="H111" s="43"/>
+      <c r="I111" s="43"/>
+      <c r="J111" s="43"/>
+      <c r="K111" s="43"/>
+      <c r="L111" s="43"/>
+      <c r="M111" s="43"/>
+      <c r="N111" s="43"/>
+      <c r="O111" s="43"/>
+      <c r="P111" s="43"/>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A112" s="34"/>
-      <c r="B112" s="34"/>
-      <c r="C112" s="34"/>
-      <c r="D112" s="34"/>
-      <c r="E112" s="34"/>
-      <c r="F112" s="34"/>
-      <c r="G112" s="34"/>
-      <c r="H112" s="34"/>
-      <c r="I112" s="34"/>
-      <c r="J112" s="34"/>
-      <c r="K112" s="34"/>
-      <c r="L112" s="34"/>
-      <c r="M112" s="34"/>
-      <c r="N112" s="34"/>
-      <c r="O112" s="34"/>
-      <c r="P112" s="34"/>
+      <c r="A112" s="43"/>
+      <c r="B112" s="43"/>
+      <c r="C112" s="43"/>
+      <c r="D112" s="43"/>
+      <c r="E112" s="43"/>
+      <c r="F112" s="43"/>
+      <c r="G112" s="43"/>
+      <c r="H112" s="43"/>
+      <c r="I112" s="43"/>
+      <c r="J112" s="43"/>
+      <c r="K112" s="43"/>
+      <c r="L112" s="43"/>
+      <c r="M112" s="43"/>
+      <c r="N112" s="43"/>
+      <c r="O112" s="43"/>
+      <c r="P112" s="43"/>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A113" s="34"/>
-      <c r="B113" s="34"/>
-      <c r="C113" s="34"/>
-      <c r="D113" s="34"/>
-      <c r="E113" s="34"/>
-      <c r="F113" s="34"/>
-      <c r="G113" s="34"/>
-      <c r="H113" s="34"/>
-      <c r="I113" s="34"/>
-      <c r="J113" s="34"/>
-      <c r="K113" s="34"/>
-      <c r="L113" s="34"/>
-      <c r="M113" s="34"/>
-      <c r="N113" s="34"/>
-      <c r="O113" s="34"/>
-      <c r="P113" s="34"/>
+      <c r="A113" s="43"/>
+      <c r="B113" s="43"/>
+      <c r="C113" s="43"/>
+      <c r="D113" s="43"/>
+      <c r="E113" s="43"/>
+      <c r="F113" s="43"/>
+      <c r="G113" s="43"/>
+      <c r="H113" s="43"/>
+      <c r="I113" s="43"/>
+      <c r="J113" s="43"/>
+      <c r="K113" s="43"/>
+      <c r="L113" s="43"/>
+      <c r="M113" s="43"/>
+      <c r="N113" s="43"/>
+      <c r="O113" s="43"/>
+      <c r="P113" s="43"/>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A114" s="34"/>
-      <c r="B114" s="34"/>
-      <c r="C114" s="34"/>
-      <c r="D114" s="34"/>
-      <c r="E114" s="34"/>
-      <c r="F114" s="34"/>
-      <c r="G114" s="34"/>
-      <c r="H114" s="34"/>
-      <c r="I114" s="34"/>
-      <c r="J114" s="34"/>
-      <c r="K114" s="34"/>
-      <c r="L114" s="34"/>
-      <c r="M114" s="34"/>
-      <c r="N114" s="34"/>
-      <c r="O114" s="34"/>
-      <c r="P114" s="34"/>
+      <c r="A114" s="43"/>
+      <c r="B114" s="43"/>
+      <c r="C114" s="43"/>
+      <c r="D114" s="43"/>
+      <c r="E114" s="43"/>
+      <c r="F114" s="43"/>
+      <c r="G114" s="43"/>
+      <c r="H114" s="43"/>
+      <c r="I114" s="43"/>
+      <c r="J114" s="43"/>
+      <c r="K114" s="43"/>
+      <c r="L114" s="43"/>
+      <c r="M114" s="43"/>
+      <c r="N114" s="43"/>
+      <c r="O114" s="43"/>
+      <c r="P114" s="43"/>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A115" s="34"/>
-      <c r="B115" s="34"/>
-      <c r="C115" s="34"/>
-      <c r="D115" s="34"/>
-      <c r="E115" s="34"/>
-      <c r="F115" s="34"/>
-      <c r="G115" s="34"/>
-      <c r="H115" s="34"/>
-      <c r="I115" s="34"/>
-      <c r="J115" s="34"/>
-      <c r="K115" s="34"/>
-      <c r="L115" s="34"/>
-      <c r="M115" s="34"/>
-      <c r="N115" s="34"/>
-      <c r="O115" s="34"/>
-      <c r="P115" s="34"/>
+      <c r="A115" s="43"/>
+      <c r="B115" s="43"/>
+      <c r="C115" s="43"/>
+      <c r="D115" s="43"/>
+      <c r="E115" s="43"/>
+      <c r="F115" s="43"/>
+      <c r="G115" s="43"/>
+      <c r="H115" s="43"/>
+      <c r="I115" s="43"/>
+      <c r="J115" s="43"/>
+      <c r="K115" s="43"/>
+      <c r="L115" s="43"/>
+      <c r="M115" s="43"/>
+      <c r="N115" s="43"/>
+      <c r="O115" s="43"/>
+      <c r="P115" s="43"/>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A116" s="34"/>
-      <c r="B116" s="34"/>
-      <c r="C116" s="34"/>
-      <c r="D116" s="34"/>
-      <c r="E116" s="34"/>
-      <c r="F116" s="34"/>
-      <c r="G116" s="34"/>
-      <c r="H116" s="34"/>
-      <c r="I116" s="34"/>
-      <c r="J116" s="34"/>
-      <c r="K116" s="34"/>
-      <c r="L116" s="34"/>
-      <c r="M116" s="34"/>
-      <c r="N116" s="34"/>
-      <c r="O116" s="34"/>
-      <c r="P116" s="34"/>
+      <c r="A116" s="43"/>
+      <c r="B116" s="43"/>
+      <c r="C116" s="43"/>
+      <c r="D116" s="43"/>
+      <c r="E116" s="43"/>
+      <c r="F116" s="43"/>
+      <c r="G116" s="43"/>
+      <c r="H116" s="43"/>
+      <c r="I116" s="43"/>
+      <c r="J116" s="43"/>
+      <c r="K116" s="43"/>
+      <c r="L116" s="43"/>
+      <c r="M116" s="43"/>
+      <c r="N116" s="43"/>
+      <c r="O116" s="43"/>
+      <c r="P116" s="43"/>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A117" s="34"/>
-      <c r="B117" s="34"/>
-      <c r="C117" s="34"/>
-      <c r="D117" s="34"/>
-      <c r="E117" s="34"/>
-      <c r="F117" s="34"/>
-      <c r="G117" s="34"/>
-      <c r="H117" s="34"/>
-      <c r="I117" s="34"/>
-      <c r="J117" s="34"/>
-      <c r="K117" s="34"/>
-      <c r="L117" s="34"/>
-      <c r="M117" s="34"/>
-      <c r="N117" s="34"/>
-      <c r="O117" s="34"/>
-      <c r="P117" s="34"/>
+      <c r="A117" s="43"/>
+      <c r="B117" s="43"/>
+      <c r="C117" s="43"/>
+      <c r="D117" s="43"/>
+      <c r="E117" s="43"/>
+      <c r="F117" s="43"/>
+      <c r="G117" s="43"/>
+      <c r="H117" s="43"/>
+      <c r="I117" s="43"/>
+      <c r="J117" s="43"/>
+      <c r="K117" s="43"/>
+      <c r="L117" s="43"/>
+      <c r="M117" s="43"/>
+      <c r="N117" s="43"/>
+      <c r="O117" s="43"/>
+      <c r="P117" s="43"/>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A118" s="34"/>
-      <c r="B118" s="34"/>
-      <c r="C118" s="34"/>
-      <c r="D118" s="34"/>
-      <c r="E118" s="34"/>
-      <c r="F118" s="34"/>
-      <c r="G118" s="34"/>
-      <c r="H118" s="34"/>
-      <c r="I118" s="34"/>
-      <c r="J118" s="34"/>
-      <c r="K118" s="34"/>
-      <c r="L118" s="34"/>
-      <c r="M118" s="34"/>
-      <c r="N118" s="34"/>
-      <c r="O118" s="34"/>
-      <c r="P118" s="34"/>
+      <c r="A118" s="43"/>
+      <c r="B118" s="43"/>
+      <c r="C118" s="43"/>
+      <c r="D118" s="43"/>
+      <c r="E118" s="43"/>
+      <c r="F118" s="43"/>
+      <c r="G118" s="43"/>
+      <c r="H118" s="43"/>
+      <c r="I118" s="43"/>
+      <c r="J118" s="43"/>
+      <c r="K118" s="43"/>
+      <c r="L118" s="43"/>
+      <c r="M118" s="43"/>
+      <c r="N118" s="43"/>
+      <c r="O118" s="43"/>
+      <c r="P118" s="43"/>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A119" s="34"/>
-      <c r="B119" s="34"/>
-      <c r="C119" s="34"/>
-      <c r="D119" s="34"/>
-      <c r="E119" s="34"/>
-      <c r="F119" s="34"/>
-      <c r="G119" s="34"/>
-      <c r="H119" s="34"/>
-      <c r="I119" s="34"/>
-      <c r="J119" s="34"/>
-      <c r="K119" s="34"/>
-      <c r="L119" s="34"/>
-      <c r="M119" s="34"/>
-      <c r="N119" s="34"/>
-      <c r="O119" s="34"/>
-      <c r="P119" s="34"/>
+      <c r="A119" s="43"/>
+      <c r="B119" s="43"/>
+      <c r="C119" s="43"/>
+      <c r="D119" s="43"/>
+      <c r="E119" s="43"/>
+      <c r="F119" s="43"/>
+      <c r="G119" s="43"/>
+      <c r="H119" s="43"/>
+      <c r="I119" s="43"/>
+      <c r="J119" s="43"/>
+      <c r="K119" s="43"/>
+      <c r="L119" s="43"/>
+      <c r="M119" s="43"/>
+      <c r="N119" s="43"/>
+      <c r="O119" s="43"/>
+      <c r="P119" s="43"/>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A120" s="34"/>
-      <c r="B120" s="34"/>
-      <c r="C120" s="34"/>
-      <c r="D120" s="34"/>
-      <c r="E120" s="34"/>
-      <c r="F120" s="34"/>
-      <c r="G120" s="34"/>
-      <c r="H120" s="34"/>
-      <c r="I120" s="34"/>
-      <c r="J120" s="34"/>
-      <c r="K120" s="34"/>
-      <c r="L120" s="34"/>
-      <c r="M120" s="34"/>
-      <c r="N120" s="34"/>
-      <c r="O120" s="34"/>
-      <c r="P120" s="34"/>
+      <c r="A120" s="43"/>
+      <c r="B120" s="43"/>
+      <c r="C120" s="43"/>
+      <c r="D120" s="43"/>
+      <c r="E120" s="43"/>
+      <c r="F120" s="43"/>
+      <c r="G120" s="43"/>
+      <c r="H120" s="43"/>
+      <c r="I120" s="43"/>
+      <c r="J120" s="43"/>
+      <c r="K120" s="43"/>
+      <c r="L120" s="43"/>
+      <c r="M120" s="43"/>
+      <c r="N120" s="43"/>
+      <c r="O120" s="43"/>
+      <c r="P120" s="43"/>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A121" s="34"/>
-      <c r="B121" s="34"/>
-      <c r="C121" s="34"/>
-      <c r="D121" s="34"/>
-      <c r="E121" s="34"/>
-      <c r="F121" s="34"/>
-      <c r="G121" s="34"/>
-      <c r="H121" s="34"/>
-      <c r="I121" s="34"/>
-      <c r="J121" s="34"/>
-      <c r="K121" s="34"/>
-      <c r="L121" s="34"/>
-      <c r="M121" s="34"/>
-      <c r="N121" s="34"/>
-      <c r="O121" s="34"/>
-      <c r="P121" s="34"/>
+      <c r="A121" s="43"/>
+      <c r="B121" s="43"/>
+      <c r="C121" s="43"/>
+      <c r="D121" s="43"/>
+      <c r="E121" s="43"/>
+      <c r="F121" s="43"/>
+      <c r="G121" s="43"/>
+      <c r="H121" s="43"/>
+      <c r="I121" s="43"/>
+      <c r="J121" s="43"/>
+      <c r="K121" s="43"/>
+      <c r="L121" s="43"/>
+      <c r="M121" s="43"/>
+      <c r="N121" s="43"/>
+      <c r="O121" s="43"/>
+      <c r="P121" s="43"/>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A122" s="34"/>
-      <c r="B122" s="34"/>
-      <c r="C122" s="34"/>
-      <c r="D122" s="34"/>
-      <c r="E122" s="34"/>
-      <c r="F122" s="34"/>
-      <c r="G122" s="34"/>
-      <c r="H122" s="34"/>
-      <c r="I122" s="34"/>
-      <c r="J122" s="34"/>
-      <c r="K122" s="34"/>
-      <c r="L122" s="34"/>
-      <c r="M122" s="34"/>
-      <c r="N122" s="34"/>
-      <c r="O122" s="34"/>
-      <c r="P122" s="34"/>
+      <c r="A122" s="43"/>
+      <c r="B122" s="43"/>
+      <c r="C122" s="43"/>
+      <c r="D122" s="43"/>
+      <c r="E122" s="43"/>
+      <c r="F122" s="43"/>
+      <c r="G122" s="43"/>
+      <c r="H122" s="43"/>
+      <c r="I122" s="43"/>
+      <c r="J122" s="43"/>
+      <c r="K122" s="43"/>
+      <c r="L122" s="43"/>
+      <c r="M122" s="43"/>
+      <c r="N122" s="43"/>
+      <c r="O122" s="43"/>
+      <c r="P122" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="186">
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="G71:I71"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="G72:I72"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="A47:B63"/>
+    <mergeCell ref="C58:D63"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="C5:F6"/>
+    <mergeCell ref="A7:B16"/>
+    <mergeCell ref="C17:D19"/>
+    <mergeCell ref="G5:I6"/>
+    <mergeCell ref="G18:I19"/>
+    <mergeCell ref="G24:I25"/>
+    <mergeCell ref="G20:I23"/>
+    <mergeCell ref="G26:I29"/>
+    <mergeCell ref="G31:I36"/>
+    <mergeCell ref="G39:I40"/>
+    <mergeCell ref="G41:I43"/>
+    <mergeCell ref="E44:F45"/>
+    <mergeCell ref="G47:I49"/>
+    <mergeCell ref="G50:I51"/>
+    <mergeCell ref="G52:I57"/>
+    <mergeCell ref="G58:I59"/>
+    <mergeCell ref="G60:I61"/>
+    <mergeCell ref="E62:F63"/>
+    <mergeCell ref="G62:I63"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="A1:O4"/>
+    <mergeCell ref="C64:D69"/>
+    <mergeCell ref="C70:D71"/>
+    <mergeCell ref="C72:D73"/>
+    <mergeCell ref="C74:D75"/>
+    <mergeCell ref="G64:I69"/>
+    <mergeCell ref="A64:B75"/>
+    <mergeCell ref="E78:F79"/>
+    <mergeCell ref="E80:F81"/>
+    <mergeCell ref="G78:I79"/>
+    <mergeCell ref="G80:I81"/>
+    <mergeCell ref="C76:D81"/>
+    <mergeCell ref="C20:D23"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="A17:B25"/>
+    <mergeCell ref="C47:D51"/>
+    <mergeCell ref="C52:D57"/>
+    <mergeCell ref="A26:B46"/>
+    <mergeCell ref="C15:D16"/>
+    <mergeCell ref="C7:D11"/>
+    <mergeCell ref="C12:D14"/>
+    <mergeCell ref="C26:D30"/>
+    <mergeCell ref="C31:D40"/>
+    <mergeCell ref="C41:D46"/>
+    <mergeCell ref="P84:P88"/>
+    <mergeCell ref="P89:P95"/>
+    <mergeCell ref="A98:P122"/>
+    <mergeCell ref="C82:D88"/>
+    <mergeCell ref="G89:I90"/>
+    <mergeCell ref="G91:I95"/>
+    <mergeCell ref="E89:F90"/>
+    <mergeCell ref="A76:B95"/>
+    <mergeCell ref="C89:D95"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="G88:I88"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="G86:I86"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="P17:P25"/>
+    <mergeCell ref="P26:P29"/>
+    <mergeCell ref="P32:P36"/>
+    <mergeCell ref="P41:P45"/>
+    <mergeCell ref="P47:P63"/>
+    <mergeCell ref="P64:P65"/>
+    <mergeCell ref="P67:P68"/>
+    <mergeCell ref="P70:P77"/>
+    <mergeCell ref="P78:P81"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="P7:P10"/>
+    <mergeCell ref="P12:P14"/>
+    <mergeCell ref="P15:P16"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="J78:J79"/>
     <mergeCell ref="J80:J81"/>
@@ -4150,92 +4164,82 @@
     <mergeCell ref="E70:F70"/>
     <mergeCell ref="G70:I70"/>
     <mergeCell ref="E71:F71"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="P7:P10"/>
-    <mergeCell ref="P12:P14"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="P17:P25"/>
-    <mergeCell ref="P26:P29"/>
-    <mergeCell ref="P32:P36"/>
-    <mergeCell ref="P41:P45"/>
-    <mergeCell ref="P47:P63"/>
-    <mergeCell ref="P64:P65"/>
-    <mergeCell ref="P67:P68"/>
-    <mergeCell ref="P70:P77"/>
-    <mergeCell ref="P78:P81"/>
-    <mergeCell ref="P84:P88"/>
-    <mergeCell ref="P89:P95"/>
-    <mergeCell ref="A98:P122"/>
-    <mergeCell ref="C82:D88"/>
-    <mergeCell ref="G89:I90"/>
-    <mergeCell ref="G91:I95"/>
-    <mergeCell ref="E89:F90"/>
-    <mergeCell ref="A76:B95"/>
-    <mergeCell ref="C89:D95"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="G88:I88"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="E92:F92"/>
-    <mergeCell ref="E93:F93"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="G86:I86"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="A1:O4"/>
-    <mergeCell ref="C64:D69"/>
-    <mergeCell ref="C70:D71"/>
-    <mergeCell ref="C72:D73"/>
-    <mergeCell ref="C74:D75"/>
-    <mergeCell ref="G64:I69"/>
-    <mergeCell ref="A64:B75"/>
-    <mergeCell ref="E78:F79"/>
-    <mergeCell ref="E80:F81"/>
-    <mergeCell ref="G78:I79"/>
-    <mergeCell ref="G80:I81"/>
-    <mergeCell ref="C76:D81"/>
-    <mergeCell ref="C20:D23"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="A17:B25"/>
-    <mergeCell ref="C47:D51"/>
-    <mergeCell ref="C52:D57"/>
-    <mergeCell ref="A26:B46"/>
-    <mergeCell ref="C15:D16"/>
-    <mergeCell ref="C7:D11"/>
-    <mergeCell ref="C12:D14"/>
-    <mergeCell ref="C26:D30"/>
-    <mergeCell ref="C31:D40"/>
-    <mergeCell ref="C41:D46"/>
-    <mergeCell ref="A47:B63"/>
-    <mergeCell ref="C58:D63"/>
-    <mergeCell ref="A5:B6"/>
-    <mergeCell ref="C5:F6"/>
-    <mergeCell ref="A7:B16"/>
-    <mergeCell ref="C17:D19"/>
-    <mergeCell ref="G5:I6"/>
-    <mergeCell ref="G18:I19"/>
-    <mergeCell ref="G24:I25"/>
-    <mergeCell ref="G20:I23"/>
-    <mergeCell ref="G26:I29"/>
-    <mergeCell ref="G31:I36"/>
-    <mergeCell ref="G39:I40"/>
-    <mergeCell ref="G41:I43"/>
-    <mergeCell ref="E44:F45"/>
-    <mergeCell ref="G47:I49"/>
-    <mergeCell ref="G50:I51"/>
-    <mergeCell ref="G52:I57"/>
-    <mergeCell ref="G58:I59"/>
-    <mergeCell ref="G60:I61"/>
-    <mergeCell ref="E62:F63"/>
-    <mergeCell ref="G62:I63"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="G71:I71"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="G72:I72"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
